--- a/left_collar_Data_Variable.xlsx
+++ b/left_collar_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>248.2758483886719</v>
+        <v>320.4655151367188</v>
       </c>
       <c r="B2" t="n">
-        <v>251.0894470214844</v>
+        <v>325.3579406738281</v>
       </c>
       <c r="C2" t="n">
-        <v>253.7940979003906</v>
+        <v>331.4807739257812</v>
       </c>
       <c r="D2" t="n">
-        <v>257.248779296875</v>
+        <v>336.6151123046875</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3927612304688</v>
+        <v>343.9468994140625</v>
       </c>
       <c r="F2" t="n">
-        <v>269.5973815917969</v>
+        <v>353.8989868164062</v>
       </c>
       <c r="G2" t="n">
-        <v>275.7446899414062</v>
+        <v>365.2693176269531</v>
       </c>
       <c r="H2" t="n">
-        <v>281.5028991699219</v>
+        <v>374.8064880371094</v>
       </c>
       <c r="I2" t="n">
-        <v>287.9588012695312</v>
+        <v>382.998291015625</v>
       </c>
       <c r="J2" t="n">
-        <v>294.8065795898438</v>
+        <v>390.5164794921875</v>
       </c>
       <c r="K2" t="n">
-        <v>301.3749694824219</v>
+        <v>398.550537109375</v>
       </c>
       <c r="L2" t="n">
-        <v>306.9295349121094</v>
+        <v>406.3445434570312</v>
       </c>
       <c r="M2" t="n">
-        <v>311.2830810546875</v>
+        <v>438.6161804199219</v>
       </c>
       <c r="N2" t="n">
-        <v>314.81787109375</v>
+        <v>440.2198486328125</v>
       </c>
       <c r="O2" t="n">
-        <v>319.3159790039062</v>
+        <v>441.1439514160156</v>
       </c>
       <c r="P2" t="n">
-        <v>323.7144470214844</v>
+        <v>439.0482177734375</v>
       </c>
       <c r="Q2" t="n">
-        <v>328.6246948242188</v>
+        <v>437.6661376953125</v>
       </c>
       <c r="R2" t="n">
-        <v>331.8997802734375</v>
+        <v>436.4841918945312</v>
       </c>
       <c r="S2" t="n">
-        <v>333.6540222167969</v>
+        <v>435.2044067382812</v>
       </c>
       <c r="T2" t="n">
-        <v>334.2508544921875</v>
+        <v>432.330078125</v>
       </c>
       <c r="U2" t="n">
-        <v>334.2830810546875</v>
+        <v>428.4580993652344</v>
       </c>
       <c r="V2" t="n">
-        <v>334.0283508300781</v>
+        <v>421.926025390625</v>
       </c>
       <c r="W2" t="n">
-        <v>333.7390441894531</v>
+        <v>415.8190307617188</v>
       </c>
       <c r="X2" t="n">
-        <v>333.3679809570312</v>
+        <v>410.8143920898438</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.9010009765625</v>
+        <v>406.5098571777344</v>
       </c>
       <c r="Z2" t="n">
-        <v>331.9179992675781</v>
+        <v>402.9290466308594</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.9238891601562</v>
+        <v>398.5302124023438</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.6579284667969</v>
+        <v>394.6419982910156</v>
       </c>
       <c r="AC2" t="n">
-        <v>328.6477355957031</v>
+        <v>391.2413940429688</v>
       </c>
       <c r="AD2" t="n">
-        <v>328.0319213867188</v>
+        <v>388.1302185058594</v>
       </c>
       <c r="AE2" t="n">
-        <v>327.6697998046875</v>
+        <v>385.7417602539062</v>
       </c>
       <c r="AF2" t="n">
-        <v>327.4937133789062</v>
+        <v>383.3714599609375</v>
       </c>
       <c r="AG2" t="n">
-        <v>327.4437255859375</v>
+        <v>381.2748413085938</v>
       </c>
       <c r="AH2" t="n">
-        <v>327.4349365234375</v>
+        <v>379.9036254882812</v>
       </c>
       <c r="AI2" t="n">
-        <v>327.5338439941406</v>
+        <v>378.4097595214844</v>
       </c>
       <c r="AJ2" t="n">
-        <v>327.7643432617188</v>
+        <v>377.3956298828125</v>
       </c>
       <c r="AK2" t="n">
-        <v>327.9967651367188</v>
+        <v>375.9674377441406</v>
       </c>
       <c r="AL2" t="n">
-        <v>328.869140625</v>
+        <v>374.296875</v>
       </c>
       <c r="AM2" t="n">
-        <v>329.76318359375</v>
+        <v>372.54541015625</v>
       </c>
       <c r="AN2" t="n">
-        <v>331.109375</v>
+        <v>371.1969604492188</v>
       </c>
       <c r="AO2" t="n">
-        <v>334.0097045898438</v>
+        <v>370.1694946289062</v>
       </c>
       <c r="AP2" t="n">
-        <v>335.3643798828125</v>
+        <v>369.0552368164062</v>
       </c>
       <c r="AQ2" t="n">
-        <v>336.155029296875</v>
+        <v>368.2140502929688</v>
       </c>
       <c r="AR2" t="n">
-        <v>336.7750244140625</v>
+        <v>367.4066772460938</v>
       </c>
       <c r="AS2" t="n">
-        <v>337.599853515625</v>
+        <v>366.9957885742188</v>
       </c>
       <c r="AT2" t="n">
-        <v>338.5498657226562</v>
+        <v>366.5703735351562</v>
       </c>
       <c r="AU2" t="n">
-        <v>339.4729919433594</v>
+        <v>366.40576171875</v>
       </c>
       <c r="AV2" t="n">
-        <v>339.9700622558594</v>
+        <v>366.2687377929688</v>
       </c>
       <c r="AW2" t="n">
-        <v>340.4420776367188</v>
+        <v>366.242919921875</v>
       </c>
       <c r="AX2" t="n">
-        <v>340.2654418945312</v>
+        <v>366.0671691894531</v>
       </c>
       <c r="AY2" t="n">
-        <v>339.9711608886719</v>
+        <v>365.7527160644531</v>
       </c>
       <c r="AZ2" t="n">
-        <v>339.7415161132812</v>
+        <v>365.3459167480469</v>
       </c>
       <c r="BA2" t="n">
-        <v>339.5767822265625</v>
+        <v>365.0987548828125</v>
       </c>
       <c r="BB2" t="n">
-        <v>339.4177856445312</v>
+        <v>364.7364807128906</v>
       </c>
       <c r="BC2" t="n">
-        <v>338.8876342773438</v>
+        <v>364.3505859375</v>
       </c>
       <c r="BD2" t="n">
-        <v>337.4774780273438</v>
+        <v>363.8368530273438</v>
       </c>
       <c r="BE2" t="n">
-        <v>336.1747741699219</v>
+        <v>363.2090454101562</v>
       </c>
       <c r="BF2" t="n">
-        <v>334.7566528320312</v>
+        <v>362.4401245117188</v>
       </c>
       <c r="BG2" t="n">
-        <v>333.2265625</v>
+        <v>361.8609008789062</v>
       </c>
       <c r="BH2" t="n">
-        <v>331.5147705078125</v>
+        <v>360.7724304199219</v>
       </c>
       <c r="BI2" t="n">
-        <v>329.4736022949219</v>
+        <v>358.4292907714844</v>
       </c>
       <c r="BJ2" t="n">
-        <v>328.2193603515625</v>
+        <v>355.6969604492188</v>
       </c>
       <c r="BK2" t="n">
-        <v>327.3539428710938</v>
+        <v>351.8693542480469</v>
       </c>
       <c r="BL2" t="n">
-        <v>326.3762817382812</v>
+        <v>347.6953735351562</v>
       </c>
       <c r="BM2" t="n">
-        <v>325.49267578125</v>
+        <v>343.7590942382812</v>
       </c>
       <c r="BN2" t="n">
-        <v>324.681884765625</v>
+        <v>340.1177978515625</v>
       </c>
       <c r="BO2" t="n">
-        <v>323.9525756835938</v>
+        <v>333.5829162597656</v>
       </c>
       <c r="BP2" t="n">
-        <v>323.4618530273438</v>
+        <v>330.3852844238281</v>
       </c>
       <c r="BQ2" t="n">
-        <v>323.1235046386719</v>
+        <v>327.4403381347656</v>
       </c>
       <c r="BR2" t="n">
-        <v>322.7470092773438</v>
+        <v>324.7551879882812</v>
       </c>
       <c r="BS2" t="n">
-        <v>322.3703002929688</v>
+        <v>322.537353515625</v>
       </c>
       <c r="BT2" t="n">
-        <v>321.9470520019531</v>
+        <v>320.5798034667969</v>
       </c>
       <c r="BU2" t="n">
-        <v>321.393310546875</v>
+        <v>319.2310485839844</v>
       </c>
       <c r="BV2" t="n">
-        <v>320.9465026855469</v>
+        <v>317.9966125488281</v>
       </c>
       <c r="BW2" t="n">
-        <v>320.7467041015625</v>
+        <v>317.2094421386719</v>
       </c>
       <c r="BX2" t="n">
-        <v>320.9393005371094</v>
+        <v>316.8075256347656</v>
       </c>
       <c r="BY2" t="n">
-        <v>320.9282836914062</v>
+        <v>316.8276977539062</v>
       </c>
       <c r="BZ2" t="n">
-        <v>320.9454345703125</v>
+        <v>317.1431579589844</v>
       </c>
       <c r="CA2" t="n">
-        <v>320.9452514648438</v>
+        <v>318.7702331542969</v>
       </c>
       <c r="CB2" t="n">
-        <v>320.9866333007812</v>
+        <v>321.15966796875</v>
       </c>
       <c r="CC2" t="n">
-        <v>321.0386962890625</v>
+        <v>325.1782836914062</v>
       </c>
       <c r="CD2" t="n">
-        <v>321.4382629394531</v>
+        <v>328.53857421875</v>
       </c>
       <c r="CE2" t="n">
-        <v>322.146240234375</v>
+        <v>334.9203796386719</v>
       </c>
       <c r="CF2" t="n">
-        <v>323.1183471679688</v>
+        <v>338.5121459960938</v>
       </c>
       <c r="CG2" t="n">
-        <v>323.72900390625</v>
+        <v>341.6545104980469</v>
       </c>
       <c r="CH2" t="n">
-        <v>323.9439697265625</v>
+        <v>347.0861206054688</v>
       </c>
       <c r="CI2" t="n">
-        <v>324.0820007324219</v>
+        <v>352.0755615234375</v>
       </c>
       <c r="CJ2" t="n">
-        <v>324.0694580078125</v>
+        <v>356.0775451660156</v>
       </c>
       <c r="CK2" t="n">
-        <v>323.974365234375</v>
+        <v>359.14794921875</v>
       </c>
       <c r="CL2" t="n">
-        <v>323.7510681152344</v>
+        <v>362.0339965820312</v>
       </c>
       <c r="CM2" t="n">
-        <v>323.4180297851562</v>
+        <v>365.2023315429688</v>
       </c>
       <c r="CN2" t="n">
-        <v>322.91259765625</v>
+        <v>369.739013671875</v>
       </c>
       <c r="CO2" t="n">
-        <v>321.9864196777344</v>
+        <v>371.6557006835938</v>
       </c>
       <c r="CP2" t="n">
-        <v>321.0146484375</v>
+        <v>373.5191040039062</v>
       </c>
       <c r="CQ2" t="n">
-        <v>319.9052734375</v>
+        <v>375.0954895019531</v>
       </c>
       <c r="CR2" t="n">
-        <v>319.0771179199219</v>
+        <v>376.2853698730469</v>
       </c>
       <c r="CS2" t="n">
-        <v>318.38330078125</v>
+        <v>377.24462890625</v>
       </c>
       <c r="CT2" t="n">
-        <v>317.09375</v>
+        <v>377.3857421875</v>
       </c>
       <c r="CU2" t="n">
-        <v>315.3690795898438</v>
+        <v>377.4005737304688</v>
       </c>
       <c r="CV2" t="n">
-        <v>313.7177734375</v>
+        <v>376.4936828613281</v>
       </c>
       <c r="CW2" t="n">
-        <v>311.8644104003906</v>
+        <v>373.7525024414062</v>
       </c>
       <c r="CX2" t="n">
-        <v>309.8583679199219</v>
+        <v>368.6282348632812</v>
       </c>
       <c r="CY2" t="n">
-        <v>306.3147277832031</v>
+        <v>366.1371459960938</v>
       </c>
       <c r="CZ2" t="n">
-        <v>303.46484375</v>
+        <v>361.4253540039062</v>
       </c>
       <c r="DA2" t="n">
-        <v>302.2028198242188</v>
+        <v>359.156005859375</v>
       </c>
       <c r="DB2" t="n">
-        <v>301.1558837890625</v>
+        <v>356.5670166015625</v>
       </c>
       <c r="DC2" t="n">
-        <v>300.81982421875</v>
+        <v>352.5565795898438</v>
       </c>
       <c r="DD2" t="n">
-        <v>300.6420288085938</v>
+        <v>347.8992004394531</v>
       </c>
       <c r="DE2" t="n">
-        <v>300.630126953125</v>
+        <v>340.4617919921875</v>
       </c>
       <c r="DF2" t="n">
-        <v>300.3683166503906</v>
+        <v>335.0300598144531</v>
       </c>
       <c r="DG2" t="n">
-        <v>300.335693359375</v>
+        <v>332.353515625</v>
       </c>
       <c r="DH2" t="n">
-        <v>300.3327331542969</v>
+        <v>327.0623779296875</v>
       </c>
       <c r="DI2" t="n">
-        <v>300.3242797851562</v>
+        <v>324.6606140136719</v>
       </c>
       <c r="DJ2" t="n">
-        <v>300.8041381835938</v>
+        <v>321.5804443359375</v>
       </c>
       <c r="DK2" t="n">
-        <v>302.509033203125</v>
+        <v>319.1609497070312</v>
       </c>
       <c r="DL2" t="n">
-        <v>304.2991027832031</v>
+        <v>318.0455932617188</v>
       </c>
       <c r="DM2" t="n">
-        <v>306.4993591308594</v>
+        <v>316.96728515625</v>
       </c>
       <c r="DN2" t="n">
-        <v>308.5986633300781</v>
+        <v>315.7935791015625</v>
       </c>
       <c r="DO2" t="n">
-        <v>312.6283874511719</v>
+        <v>314.3916015625</v>
       </c>
       <c r="DP2" t="n">
-        <v>315.5662841796875</v>
+        <v>313.2064819335938</v>
       </c>
       <c r="DQ2" t="n">
-        <v>318.57568359375</v>
+        <v>311.6602478027344</v>
       </c>
       <c r="DR2" t="n">
-        <v>321.5705871582031</v>
+        <v>311.1784057617188</v>
       </c>
       <c r="DS2" t="n">
-        <v>326.14013671875</v>
+        <v>311.0458679199219</v>
       </c>
       <c r="DT2" t="n">
-        <v>328.6358642578125</v>
+        <v>310.9625854492188</v>
       </c>
       <c r="DU2" t="n">
-        <v>333.5202331542969</v>
+        <v>310.9653015136719</v>
       </c>
       <c r="DV2" t="n">
-        <v>336.7591552734375</v>
+        <v>311.1514587402344</v>
       </c>
       <c r="DW2" t="n">
-        <v>339.7046203613281</v>
+        <v>316.9873046875</v>
       </c>
       <c r="DX2" t="n">
-        <v>341.8408203125</v>
+        <v>321.5048217773438</v>
       </c>
       <c r="DY2" t="n">
-        <v>342.9527282714844</v>
+        <v>325.3533630371094</v>
       </c>
       <c r="DZ2" t="n">
-        <v>344.078857421875</v>
+        <v>332.2440185546875</v>
       </c>
       <c r="EA2" t="n">
-        <v>344.3204040527344</v>
+        <v>335.9737548828125</v>
       </c>
       <c r="EB2" t="n">
-        <v>344.5113830566406</v>
+        <v>347.2873229980469</v>
       </c>
       <c r="EC2" t="n">
-        <v>344.55322265625</v>
+        <v>354.447265625</v>
       </c>
       <c r="ED2" t="n">
-        <v>344.5832824707031</v>
+        <v>360.8084106445312</v>
       </c>
       <c r="EE2" t="n">
-        <v>344.3008422851562</v>
+        <v>371.67138671875</v>
       </c>
       <c r="EF2" t="n">
-        <v>343.6023559570312</v>
+        <v>386.6224365234375</v>
       </c>
       <c r="EG2" t="n">
-        <v>341.9536743164062</v>
+        <v>400.4830932617188</v>
       </c>
       <c r="EH2" t="n">
-        <v>339.4314575195312</v>
+        <v>406.9120788574219</v>
       </c>
       <c r="EI2" t="n">
-        <v>338.0003051757812</v>
+        <v>417.7237548828125</v>
       </c>
       <c r="EJ2" t="n">
-        <v>335.5263977050781</v>
+        <v>422.42578125</v>
       </c>
       <c r="EK2" t="n">
-        <v>333.7635498046875</v>
+        <v>429.84130859375</v>
       </c>
       <c r="EL2" t="n">
-        <v>329.5064697265625</v>
+        <v>432.5851745605469</v>
       </c>
       <c r="EM2" t="n">
-        <v>324.4814453125</v>
+        <v>437.1077880859375</v>
       </c>
       <c r="EN2" t="n">
-        <v>322.26123046875</v>
+        <v>439.5465698242188</v>
       </c>
       <c r="EO2" t="n">
-        <v>319.4111633300781</v>
+        <v>442.7995300292969</v>
       </c>
       <c r="EP2" t="n">
-        <v>318.5614013671875</v>
+        <v>444.8270263671875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>317.0167541503906</v>
+        <v>448.4784545898438</v>
       </c>
       <c r="ER2" t="n">
-        <v>316.4466247558594</v>
+        <v>449.4205932617188</v>
       </c>
       <c r="ES2" t="n">
-        <v>315.7575073242188</v>
+        <v>449.7200317382812</v>
       </c>
       <c r="ET2" t="n">
-        <v>315.6568298339844</v>
+        <v>450.5857849121094</v>
       </c>
       <c r="EU2" t="n">
-        <v>315.548095703125</v>
+        <v>451.7034912109375</v>
       </c>
       <c r="EV2" t="n">
-        <v>315.3495483398438</v>
+        <v>452.3304748535156</v>
       </c>
       <c r="EW2" t="n">
-        <v>315.4772033691406</v>
+        <v>452.0530700683594</v>
       </c>
       <c r="EX2" t="n">
-        <v>315.4349060058594</v>
+        <v>452.560546875</v>
       </c>
       <c r="EY2" t="n">
-        <v>315.76025390625</v>
+        <v>453.1702270507812</v>
       </c>
       <c r="EZ2" t="n">
-        <v>316.2871704101562</v>
+        <v>453.5731506347656</v>
       </c>
       <c r="FA2" t="n">
-        <v>317.9849853515625</v>
+        <v>453.7272338867188</v>
       </c>
       <c r="FB2" t="n">
-        <v>319.1838684082031</v>
+        <v>454.0669250488281</v>
       </c>
       <c r="FC2" t="n">
-        <v>320.8125</v>
+        <v>453.35107421875</v>
       </c>
       <c r="FD2" t="n">
-        <v>321.6397094726562</v>
+        <v>450.5787658691406</v>
       </c>
       <c r="FE2" t="n">
-        <v>321.9030151367188</v>
+        <v>449.9429931640625</v>
       </c>
       <c r="FF2" t="n">
-        <v>321.9931640625</v>
+        <v>449.6187744140625</v>
       </c>
       <c r="FG2" t="n">
-        <v>322.0463562011719</v>
+        <v>448.3364562988281</v>
       </c>
       <c r="FH2" t="n">
-        <v>322.0430297851562</v>
+        <v>447.3304443359375</v>
       </c>
       <c r="FI2" t="n">
-        <v>322.0354614257812</v>
+        <v>445.3575134277344</v>
       </c>
       <c r="FJ2" t="n">
-        <v>321.935546875</v>
+        <v>444.5122680664062</v>
       </c>
       <c r="FK2" t="n">
-        <v>321.5101318359375</v>
+        <v>443.1533203125</v>
       </c>
       <c r="FL2" t="n">
-        <v>319.7662353515625</v>
+        <v>442.3275146484375</v>
       </c>
       <c r="FM2" t="n">
-        <v>318.795654296875</v>
+        <v>440.8977661132812</v>
       </c>
       <c r="FN2" t="n">
-        <v>317.0993957519531</v>
+        <v>440.1318969726562</v>
       </c>
       <c r="FO2" t="n">
-        <v>315.4323425292969</v>
+        <v>439.25537109375</v>
       </c>
       <c r="FP2" t="n">
-        <v>311.4718322753906</v>
+        <v>436.2592163085938</v>
       </c>
       <c r="FQ2" t="n">
-        <v>309.1427612304688</v>
+        <v>432.5974731445312</v>
       </c>
       <c r="FR2" t="n">
-        <v>304.9646301269531</v>
+        <v>429.2727966308594</v>
       </c>
       <c r="FS2" t="n">
-        <v>304.12158203125</v>
+        <v>426.0977478027344</v>
       </c>
       <c r="FT2" t="n">
-        <v>304.0722961425781</v>
+        <v>421.6406860351562</v>
       </c>
       <c r="FU2" t="n">
-        <v>304.5802307128906</v>
+        <v>419.0804443359375</v>
       </c>
       <c r="FV2" t="n">
-        <v>304.0726928710938</v>
+        <v>411.0975341796875</v>
       </c>
       <c r="FW2" t="n">
-        <v>303.5139465332031</v>
+        <v>405.4298706054688</v>
       </c>
       <c r="FX2" t="n">
-        <v>303.0938110351562</v>
+        <v>403.0591125488281</v>
       </c>
       <c r="FY2" t="n">
-        <v>302.6176452636719</v>
+        <v>401.1058044433594</v>
       </c>
       <c r="FZ2" t="n">
-        <v>301.6930541992188</v>
+        <v>396.534423828125</v>
       </c>
       <c r="GA2" t="n">
-        <v>301.1546630859375</v>
+        <v>394.6476745605469</v>
       </c>
       <c r="GB2" t="n">
-        <v>301.0087585449219</v>
+        <v>391.4073181152344</v>
       </c>
       <c r="GC2" t="n">
-        <v>300.8088989257812</v>
+        <v>390.4710388183594</v>
       </c>
       <c r="GD2" t="n">
-        <v>300.7551574707031</v>
+        <v>389.2977905273438</v>
       </c>
       <c r="GE2" t="n">
-        <v>301.4377746582031</v>
+        <v>389.1003723144531</v>
       </c>
       <c r="GF2" t="n">
-        <v>302.0412292480469</v>
+        <v>389.27197265625</v>
       </c>
       <c r="GG2" t="n">
-        <v>302.9597473144531</v>
+        <v>391.104248046875</v>
       </c>
       <c r="GH2" t="n">
-        <v>303.3780517578125</v>
+        <v>392.3306274414062</v>
       </c>
       <c r="GI2" t="n">
-        <v>304.640625</v>
+        <v>391.6387329101562</v>
       </c>
       <c r="GJ2" t="n">
-        <v>306.3703308105469</v>
+        <v>389.4878540039062</v>
       </c>
       <c r="GK2" t="n">
-        <v>308.19189453125</v>
+        <v>387.9620971679688</v>
       </c>
       <c r="GL2" t="n">
-        <v>308.3536376953125</v>
+        <v>384.0563354492188</v>
       </c>
       <c r="GM2" t="n">
-        <v>308.3501281738281</v>
+        <v>379.9605102539062</v>
       </c>
       <c r="GN2" t="n">
-        <v>307.9614562988281</v>
+        <v>377.3973388671875</v>
       </c>
       <c r="GO2" t="n">
-        <v>306.4618225097656</v>
+        <v>371.5257263183594</v>
       </c>
       <c r="GP2" t="n">
-        <v>305.1651916503906</v>
+        <v>364.7984008789062</v>
       </c>
       <c r="GQ2" t="n">
-        <v>304.3867797851562</v>
+        <v>354.7860412597656</v>
       </c>
       <c r="GR2" t="n">
-        <v>303.7154541015625</v>
+        <v>349.1170654296875</v>
       </c>
       <c r="GS2" t="n">
-        <v>302.3583679199219</v>
+        <v>344.3240966796875</v>
       </c>
       <c r="GT2" t="n">
-        <v>301.7033081054688</v>
+        <v>341.7548828125</v>
       </c>
       <c r="GU2" t="n">
-        <v>299.7577209472656</v>
+        <v>336.0250549316406</v>
       </c>
       <c r="GV2" t="n">
-        <v>297.3660278320312</v>
+        <v>332.402099609375</v>
       </c>
       <c r="GW2" t="n">
-        <v>295.6577453613281</v>
+        <v>331.0897216796875</v>
       </c>
       <c r="GX2" t="n">
-        <v>294.3891906738281</v>
+        <v>329.2648010253906</v>
       </c>
       <c r="GY2" t="n">
-        <v>293.4644470214844</v>
+        <v>327.5699462890625</v>
       </c>
       <c r="GZ2" t="n">
-        <v>292.5737915039062</v>
+        <v>326.7987060546875</v>
       </c>
       <c r="HA2" t="n">
-        <v>291.6941223144531</v>
+        <v>326.5685729980469</v>
       </c>
       <c r="HB2" t="n">
-        <v>291.5081176757812</v>
+        <v>326.5458984375</v>
       </c>
       <c r="HC2" t="n">
-        <v>292.3039855957031</v>
+        <v>326.53173828125</v>
       </c>
       <c r="HD2" t="n">
-        <v>293.3211364746094</v>
+        <v>326.5427856445312</v>
       </c>
       <c r="HE2" t="n">
-        <v>293.9410705566406</v>
+        <v>326.4251708984375</v>
       </c>
       <c r="HF2" t="n">
-        <v>294.3047790527344</v>
+        <v>327.1756591796875</v>
       </c>
       <c r="HG2" t="n">
-        <v>293.8277282714844</v>
+        <v>330.2235717773438</v>
       </c>
       <c r="HH2" t="n">
-        <v>292.751708984375</v>
+        <v>332.0254516601562</v>
       </c>
       <c r="HI2" t="n">
-        <v>290.8619995117188</v>
+        <v>333.784423828125</v>
       </c>
       <c r="HJ2" t="n">
-        <v>288.515625</v>
+        <v>338.2628173828125</v>
       </c>
       <c r="HK2" t="n">
-        <v>283.8738403320312</v>
+        <v>345.3303527832031</v>
       </c>
       <c r="HL2" t="n">
-        <v>276.2336730957031</v>
+        <v>353.3241577148438</v>
       </c>
       <c r="HM2" t="n">
-        <v>268.5650024414062</v>
+        <v>360.8034973144531</v>
       </c>
       <c r="HN2" t="n">
-        <v>259.3052062988281</v>
+        <v>370.9359436035156</v>
       </c>
       <c r="HO2" t="n">
-        <v>254.1195831298828</v>
+        <v>386.5804443359375</v>
       </c>
       <c r="HP2" t="n">
-        <v>250.7347106933594</v>
+        <v>394.9766540527344</v>
       </c>
       <c r="HQ2" t="n">
-        <v>248.0197143554688</v>
+        <v>399.4134826660156</v>
       </c>
       <c r="HR2" t="n">
-        <v>245.2227478027344</v>
+        <v>411.3272399902344</v>
       </c>
       <c r="HS2" t="n">
-        <v>241.7589416503906</v>
+        <v>417.3543090820312</v>
       </c>
       <c r="HT2" t="n">
-        <v>238.1732788085938</v>
+        <v>422.2887878417969</v>
       </c>
       <c r="HU2" t="n">
-        <v>233.0128784179688</v>
+        <v>426.0322875976562</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>429.5184936523438</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>432.6941528320312</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>435.3766174316406</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>436.3062744140625</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>437.74267578125</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>438.3975830078125</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>438.3843994140625</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>438.3023681640625</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>436.4767761230469</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>433.4787292480469</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>430.532470703125</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>427.0447387695312</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>419.550537109375</v>
+      </c>
+      <c r="II2" t="n">
+        <v>414.0735473632812</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>406.4993286132812</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>393.7349853515625</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>389.060791015625</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>379.515380859375</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>365.8902587890625</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>358.8666381835938</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>356.1023559570312</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>346.9344787597656</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>340.7609558105469</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>338.8461608886719</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>333.7596435546875</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>330.5534057617188</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>328.9315490722656</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>328.2743530273438</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>327.079345703125</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>327.0489196777344</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>327.161376953125</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>329.23193359375</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>332.4948425292969</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>337.2521667480469</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>340.6693115234375</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>347.1672973632812</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>353.1645202636719</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>362.8938293457031</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>370.4812316894531</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>375.3042297363281</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>380.3498840332031</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>386.2311401367188</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>392.5030517578125</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>395.8668212890625</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>400.10595703125</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>404.2481689453125</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>406.4255981445312</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>408.2342529296875</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>409.9256896972656</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>411.8835144042969</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>413.5163879394531</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>414.6428833007812</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>415.3070678710938</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>415.8170776367188</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>416.2517700195312</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>416.4400634765625</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>416.5299072265625</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>416.6022338867188</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>416.6334228515625</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>416.6134033203125</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>415.9508666992188</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>415.6190795898438</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>415.4190063476562</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>414.9097290039062</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>414.4306945800781</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>413.9163818359375</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>413.2657165527344</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>413.0055236816406</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>412.825927734375</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>412.8423461914062</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>412.903564453125</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>413.2674865722656</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>413.8881225585938</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>415.1098022460938</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>415.9505615234375</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>416.6504211425781</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>417.110107421875</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>417.4716796875</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>417.7646484375</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>417.9097290039062</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>418.177734375</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>418.5538330078125</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>419.1828002929688</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>420.8246459960938</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>422.1199951171875</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>422.9732971191406</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>424.0446166992188</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>424.2552185058594</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>425.105224609375</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>427.6844482421875</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>429.5904235839844</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>433.87158203125</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>438.4528198242188</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>442.8807373046875</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>445.7367553710938</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>448.2607421875</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>450.9788208007812</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>452.9957885742188</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>459.2282409667969</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>467.2449035644531</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>472.581787109375</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>476.7699584960938</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>483.8485717773438</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>484.1199951171875</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>481.1724548339844</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>476.8105773925781</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>471.3290100097656</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>462.8855895996094</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>452.7185668945312</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>431.3528747558594</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>410.8304443359375</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>392.8743896484375</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>367.5802917480469</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>344.3477783203125</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>332.5926208496094</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>323.6205749511719</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>323.1914672851562</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>326.3838195800781</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>345.3477783203125</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>360.6578979492188</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>367.3956909179688</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>380.1538696289062</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>388.1417236328125</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>393.3656616210938</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>397.15283203125</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>397.8435668945312</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>391.4603271484375</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>388.9093627929688</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>388.7484741210938</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>395.9700012207031</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>386.218017578125</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>366.2200927734375</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>357.0588989257812</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>355.3262939453125</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>353.1968688964844</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>351.863037109375</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>351.1194152832031</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>349.6272583007812</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>350.24267578125</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>355.0728149414062</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>361.0700073242188</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>366.2433166503906</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>366.8663330078125</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>366.3772277832031</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>365.9791259765625</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>365.9476318359375</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>365.9906616210938</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>366.7054443359375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>169.2204742431641</v>
+        <v>174.6383666992188</v>
       </c>
       <c r="B3" t="n">
-        <v>167.8668823242188</v>
+        <v>173.3324584960938</v>
       </c>
       <c r="C3" t="n">
-        <v>166.6994171142578</v>
+        <v>172.8886108398438</v>
       </c>
       <c r="D3" t="n">
-        <v>166.9308624267578</v>
+        <v>172.9898376464844</v>
       </c>
       <c r="E3" t="n">
-        <v>168.2213897705078</v>
+        <v>174.7385559082031</v>
       </c>
       <c r="F3" t="n">
-        <v>169.6605529785156</v>
+        <v>176.7570648193359</v>
       </c>
       <c r="G3" t="n">
-        <v>173.0455169677734</v>
+        <v>178.8758697509766</v>
       </c>
       <c r="H3" t="n">
-        <v>179.2317962646484</v>
+        <v>181.1963653564453</v>
       </c>
       <c r="I3" t="n">
-        <v>184.8031158447266</v>
+        <v>183.3803558349609</v>
       </c>
       <c r="J3" t="n">
-        <v>190.7690277099609</v>
+        <v>185.1598663330078</v>
       </c>
       <c r="K3" t="n">
-        <v>196.8149871826172</v>
+        <v>186.0349273681641</v>
       </c>
       <c r="L3" t="n">
-        <v>201.3528442382812</v>
+        <v>186.4502868652344</v>
       </c>
       <c r="M3" t="n">
-        <v>204.2406158447266</v>
+        <v>184.9820556640625</v>
       </c>
       <c r="N3" t="n">
-        <v>206.1373138427734</v>
+        <v>182.2508239746094</v>
       </c>
       <c r="O3" t="n">
-        <v>202.1146392822266</v>
+        <v>187.8947601318359</v>
       </c>
       <c r="P3" t="n">
-        <v>195.1987762451172</v>
+        <v>187.0945129394531</v>
       </c>
       <c r="Q3" t="n">
-        <v>185.0074157714844</v>
+        <v>187.0869140625</v>
       </c>
       <c r="R3" t="n">
-        <v>178.7384185791016</v>
+        <v>187.4747161865234</v>
       </c>
       <c r="S3" t="n">
-        <v>176.2758178710938</v>
+        <v>188.0197296142578</v>
       </c>
       <c r="T3" t="n">
-        <v>176.4966125488281</v>
+        <v>189.2430725097656</v>
       </c>
       <c r="U3" t="n">
-        <v>178.7181243896484</v>
+        <v>190.8237609863281</v>
       </c>
       <c r="V3" t="n">
-        <v>183.0794830322266</v>
+        <v>194.9178314208984</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5658874511719</v>
+        <v>197.9175567626953</v>
       </c>
       <c r="X3" t="n">
-        <v>190.9837188720703</v>
+        <v>200.4685974121094</v>
       </c>
       <c r="Y3" t="n">
-        <v>194.02734375</v>
+        <v>203.4216766357422</v>
       </c>
       <c r="Z3" t="n">
-        <v>196.4924774169922</v>
+        <v>206.4058227539062</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.9855499267578</v>
+        <v>208.9609680175781</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.0912933349609</v>
+        <v>211.0904083251953</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.4477844238281</v>
+        <v>212.9621429443359</v>
       </c>
       <c r="AD3" t="n">
-        <v>203.0945281982422</v>
+        <v>214.4900512695312</v>
       </c>
       <c r="AE3" t="n">
-        <v>202.8665161132812</v>
+        <v>215.3325958251953</v>
       </c>
       <c r="AF3" t="n">
-        <v>200.5047912597656</v>
+        <v>215.6770629882812</v>
       </c>
       <c r="AG3" t="n">
-        <v>197.6910705566406</v>
+        <v>215.8478851318359</v>
       </c>
       <c r="AH3" t="n">
-        <v>195.6911315917969</v>
+        <v>215.0900115966797</v>
       </c>
       <c r="AI3" t="n">
-        <v>194.7197875976562</v>
+        <v>214.1004791259766</v>
       </c>
       <c r="AJ3" t="n">
-        <v>194.6633605957031</v>
+        <v>212.4548492431641</v>
       </c>
       <c r="AK3" t="n">
-        <v>195.6935119628906</v>
+        <v>211.6671752929688</v>
       </c>
       <c r="AL3" t="n">
-        <v>198.1993865966797</v>
+        <v>211.530029296875</v>
       </c>
       <c r="AM3" t="n">
-        <v>200.2953643798828</v>
+        <v>211.5278778076172</v>
       </c>
       <c r="AN3" t="n">
-        <v>201.518798828125</v>
+        <v>211.5341186523438</v>
       </c>
       <c r="AO3" t="n">
-        <v>203.1309356689453</v>
+        <v>211.5208129882812</v>
       </c>
       <c r="AP3" t="n">
-        <v>204.9438781738281</v>
+        <v>211.4765472412109</v>
       </c>
       <c r="AQ3" t="n">
-        <v>206.440185546875</v>
+        <v>211.4175262451172</v>
       </c>
       <c r="AR3" t="n">
-        <v>207.6375732421875</v>
+        <v>211.3819732666016</v>
       </c>
       <c r="AS3" t="n">
-        <v>208.7440490722656</v>
+        <v>211.3356170654297</v>
       </c>
       <c r="AT3" t="n">
-        <v>209.6727752685547</v>
+        <v>211.2540740966797</v>
       </c>
       <c r="AU3" t="n">
-        <v>210.5866546630859</v>
+        <v>211.1815948486328</v>
       </c>
       <c r="AV3" t="n">
-        <v>211.0124053955078</v>
+        <v>211.0714721679688</v>
       </c>
       <c r="AW3" t="n">
-        <v>210.7608489990234</v>
+        <v>210.9677581787109</v>
       </c>
       <c r="AX3" t="n">
-        <v>209.3891754150391</v>
+        <v>210.8431243896484</v>
       </c>
       <c r="AY3" t="n">
-        <v>207.6473388671875</v>
+        <v>210.6797943115234</v>
       </c>
       <c r="AZ3" t="n">
-        <v>206.1579742431641</v>
+        <v>210.4263305664062</v>
       </c>
       <c r="BA3" t="n">
-        <v>205.4641265869141</v>
+        <v>210.1222076416016</v>
       </c>
       <c r="BB3" t="n">
-        <v>205.4584503173828</v>
+        <v>209.8912811279297</v>
       </c>
       <c r="BC3" t="n">
-        <v>205.6766815185547</v>
+        <v>209.6638031005859</v>
       </c>
       <c r="BD3" t="n">
-        <v>208.2140197753906</v>
+        <v>209.1721954345703</v>
       </c>
       <c r="BE3" t="n">
-        <v>209.9092102050781</v>
+        <v>208.6786956787109</v>
       </c>
       <c r="BF3" t="n">
-        <v>210.7283935546875</v>
+        <v>208.1790466308594</v>
       </c>
       <c r="BG3" t="n">
-        <v>211.9355926513672</v>
+        <v>207.0907745361328</v>
       </c>
       <c r="BH3" t="n">
-        <v>212.9791870117188</v>
+        <v>205.5906372070312</v>
       </c>
       <c r="BI3" t="n">
-        <v>213.7183837890625</v>
+        <v>204.0107116699219</v>
       </c>
       <c r="BJ3" t="n">
-        <v>214.3268585205078</v>
+        <v>202.4695587158203</v>
       </c>
       <c r="BK3" t="n">
-        <v>214.8876037597656</v>
+        <v>201.4649200439453</v>
       </c>
       <c r="BL3" t="n">
-        <v>214.9609680175781</v>
+        <v>200.8173828125</v>
       </c>
       <c r="BM3" t="n">
-        <v>215.0445404052734</v>
+        <v>200.384521484375</v>
       </c>
       <c r="BN3" t="n">
-        <v>215.1088409423828</v>
+        <v>199.9223327636719</v>
       </c>
       <c r="BO3" t="n">
-        <v>215.1758270263672</v>
+        <v>198.5039520263672</v>
       </c>
       <c r="BP3" t="n">
-        <v>214.7383728027344</v>
+        <v>197.6350250244141</v>
       </c>
       <c r="BQ3" t="n">
-        <v>213.5246887207031</v>
+        <v>196.9514770507812</v>
       </c>
       <c r="BR3" t="n">
-        <v>212.4100952148438</v>
+        <v>196.3511199951172</v>
       </c>
       <c r="BS3" t="n">
-        <v>211.8603668212891</v>
+        <v>195.7361450195312</v>
       </c>
       <c r="BT3" t="n">
-        <v>211.770751953125</v>
+        <v>195.2888031005859</v>
       </c>
       <c r="BU3" t="n">
-        <v>212.5630035400391</v>
+        <v>194.9883575439453</v>
       </c>
       <c r="BV3" t="n">
-        <v>213.3987274169922</v>
+        <v>194.6939086914062</v>
       </c>
       <c r="BW3" t="n">
-        <v>213.6495513916016</v>
+        <v>194.3788452148438</v>
       </c>
       <c r="BX3" t="n">
-        <v>213.9761657714844</v>
+        <v>194.0350952148438</v>
       </c>
       <c r="BY3" t="n">
-        <v>214.1614074707031</v>
+        <v>192.7704010009766</v>
       </c>
       <c r="BZ3" t="n">
-        <v>215.3364105224609</v>
+        <v>192.1221771240234</v>
       </c>
       <c r="CA3" t="n">
-        <v>217.2810668945312</v>
+        <v>191.7176361083984</v>
       </c>
       <c r="CB3" t="n">
-        <v>218.7513885498047</v>
+        <v>191.5147094726562</v>
       </c>
       <c r="CC3" t="n">
-        <v>219.2522888183594</v>
+        <v>191.4591827392578</v>
       </c>
       <c r="CD3" t="n">
-        <v>219.1955108642578</v>
+        <v>191.3588409423828</v>
       </c>
       <c r="CE3" t="n">
-        <v>219.0882110595703</v>
+        <v>191.177001953125</v>
       </c>
       <c r="CF3" t="n">
-        <v>218.8981628417969</v>
+        <v>190.9847259521484</v>
       </c>
       <c r="CG3" t="n">
-        <v>218.7013092041016</v>
+        <v>190.9072875976562</v>
       </c>
       <c r="CH3" t="n">
-        <v>218.3486785888672</v>
+        <v>190.8014831542969</v>
       </c>
       <c r="CI3" t="n">
-        <v>218.176025390625</v>
+        <v>190.6870727539062</v>
       </c>
       <c r="CJ3" t="n">
-        <v>217.8643341064453</v>
+        <v>190.5769348144531</v>
       </c>
       <c r="CK3" t="n">
-        <v>217.4699096679688</v>
+        <v>190.4675140380859</v>
       </c>
       <c r="CL3" t="n">
-        <v>217.6623992919922</v>
+        <v>190.2799835205078</v>
       </c>
       <c r="CM3" t="n">
-        <v>217.8233337402344</v>
+        <v>190.1100006103516</v>
       </c>
       <c r="CN3" t="n">
-        <v>218.0654907226562</v>
+        <v>189.6569061279297</v>
       </c>
       <c r="CO3" t="n">
-        <v>218.3112335205078</v>
+        <v>189.4545745849609</v>
       </c>
       <c r="CP3" t="n">
-        <v>218.4436340332031</v>
+        <v>189.205322265625</v>
       </c>
       <c r="CQ3" t="n">
-        <v>218.5806274414062</v>
+        <v>188.9776763916016</v>
       </c>
       <c r="CR3" t="n">
-        <v>218.6783447265625</v>
+        <v>188.7773132324219</v>
       </c>
       <c r="CS3" t="n">
-        <v>218.73486328125</v>
+        <v>188.5743103027344</v>
       </c>
       <c r="CT3" t="n">
-        <v>218.4014587402344</v>
+        <v>188.5539855957031</v>
       </c>
       <c r="CU3" t="n">
-        <v>218.0055541992188</v>
+        <v>188.5507354736328</v>
       </c>
       <c r="CV3" t="n">
-        <v>219.1641387939453</v>
+        <v>188.5466613769531</v>
       </c>
       <c r="CW3" t="n">
-        <v>220.109130859375</v>
+        <v>188.5768432617188</v>
       </c>
       <c r="CX3" t="n">
-        <v>219.7068786621094</v>
+        <v>188.6705932617188</v>
       </c>
       <c r="CY3" t="n">
-        <v>217.5009765625</v>
+        <v>188.7640380859375</v>
       </c>
       <c r="CZ3" t="n">
-        <v>217.7052917480469</v>
+        <v>189.020263671875</v>
       </c>
       <c r="DA3" t="n">
-        <v>218.2678985595703</v>
+        <v>189.1047668457031</v>
       </c>
       <c r="DB3" t="n">
-        <v>219.1481475830078</v>
+        <v>189.1721954345703</v>
       </c>
       <c r="DC3" t="n">
-        <v>219.5830383300781</v>
+        <v>189.0000762939453</v>
       </c>
       <c r="DD3" t="n">
-        <v>220.2901306152344</v>
+        <v>188.8825988769531</v>
       </c>
       <c r="DE3" t="n">
-        <v>220.4579620361328</v>
+        <v>188.6462707519531</v>
       </c>
       <c r="DF3" t="n">
-        <v>221.4388275146484</v>
+        <v>188.6630401611328</v>
       </c>
       <c r="DG3" t="n">
-        <v>220.8267364501953</v>
+        <v>188.7293395996094</v>
       </c>
       <c r="DH3" t="n">
-        <v>221.4199371337891</v>
+        <v>188.9337310791016</v>
       </c>
       <c r="DI3" t="n">
-        <v>223.2313385009766</v>
+        <v>189.0563659667969</v>
       </c>
       <c r="DJ3" t="n">
-        <v>223.8404693603516</v>
+        <v>189.3181304931641</v>
       </c>
       <c r="DK3" t="n">
-        <v>222.4390411376953</v>
+        <v>189.4331359863281</v>
       </c>
       <c r="DL3" t="n">
-        <v>221.8176574707031</v>
+        <v>189.4932250976562</v>
       </c>
       <c r="DM3" t="n">
-        <v>220.7216491699219</v>
+        <v>189.5472259521484</v>
       </c>
       <c r="DN3" t="n">
-        <v>220.0307312011719</v>
+        <v>189.5844421386719</v>
       </c>
       <c r="DO3" t="n">
-        <v>221.1417846679688</v>
+        <v>189.6282348632812</v>
       </c>
       <c r="DP3" t="n">
-        <v>222.0219268798828</v>
+        <v>189.6881408691406</v>
       </c>
       <c r="DQ3" t="n">
-        <v>222.2738800048828</v>
+        <v>189.8174438476562</v>
       </c>
       <c r="DR3" t="n">
-        <v>221.4578552246094</v>
+        <v>189.8635864257812</v>
       </c>
       <c r="DS3" t="n">
-        <v>218.4831695556641</v>
+        <v>189.8964233398438</v>
       </c>
       <c r="DT3" t="n">
-        <v>217.2334747314453</v>
+        <v>190.0118713378906</v>
       </c>
       <c r="DU3" t="n">
-        <v>215.1642913818359</v>
+        <v>190.6420593261719</v>
       </c>
       <c r="DV3" t="n">
-        <v>215.3194427490234</v>
+        <v>191.62646484375</v>
       </c>
       <c r="DW3" t="n">
-        <v>215.4762878417969</v>
+        <v>194.6535491943359</v>
       </c>
       <c r="DX3" t="n">
-        <v>215.2061767578125</v>
+        <v>195.7566070556641</v>
       </c>
       <c r="DY3" t="n">
-        <v>214.1256256103516</v>
+        <v>196.6130981445312</v>
       </c>
       <c r="DZ3" t="n">
-        <v>213.2961120605469</v>
+        <v>198.9478302001953</v>
       </c>
       <c r="EA3" t="n">
-        <v>213.1195373535156</v>
+        <v>200.2514038085938</v>
       </c>
       <c r="EB3" t="n">
-        <v>213.0961303710938</v>
+        <v>203.5177001953125</v>
       </c>
       <c r="EC3" t="n">
-        <v>213.1037139892578</v>
+        <v>205.5445861816406</v>
       </c>
       <c r="ED3" t="n">
-        <v>213.1430358886719</v>
+        <v>207.708740234375</v>
       </c>
       <c r="EE3" t="n">
-        <v>213.1210327148438</v>
+        <v>211.1292266845703</v>
       </c>
       <c r="EF3" t="n">
-        <v>213.0152740478516</v>
+        <v>216.6702270507812</v>
       </c>
       <c r="EG3" t="n">
-        <v>213.7484588623047</v>
+        <v>220.2884368896484</v>
       </c>
       <c r="EH3" t="n">
-        <v>214.9809722900391</v>
+        <v>221.2241363525391</v>
       </c>
       <c r="EI3" t="n">
-        <v>215.5746459960938</v>
+        <v>222.4343719482422</v>
       </c>
       <c r="EJ3" t="n">
-        <v>216.5560607910156</v>
+        <v>222.5748138427734</v>
       </c>
       <c r="EK3" t="n">
-        <v>216.6791839599609</v>
+        <v>221.7577209472656</v>
       </c>
       <c r="EL3" t="n">
-        <v>216.8856811523438</v>
+        <v>220.8101196289062</v>
       </c>
       <c r="EM3" t="n">
-        <v>219.7030944824219</v>
+        <v>219.6426696777344</v>
       </c>
       <c r="EN3" t="n">
-        <v>221.5832366943359</v>
+        <v>219.4769592285156</v>
       </c>
       <c r="EO3" t="n">
-        <v>221.5665740966797</v>
+        <v>219.5462341308594</v>
       </c>
       <c r="EP3" t="n">
-        <v>220.5619049072266</v>
+        <v>220.5452117919922</v>
       </c>
       <c r="EQ3" t="n">
-        <v>218.7198791503906</v>
+        <v>225.6973419189453</v>
       </c>
       <c r="ER3" t="n">
-        <v>218.2380981445312</v>
+        <v>227.3246459960938</v>
       </c>
       <c r="ES3" t="n">
-        <v>218.1334228515625</v>
+        <v>230.8141937255859</v>
       </c>
       <c r="ET3" t="n">
-        <v>217.8612365722656</v>
+        <v>234.236328125</v>
       </c>
       <c r="EU3" t="n">
-        <v>217.5976257324219</v>
+        <v>235.7706909179688</v>
       </c>
       <c r="EV3" t="n">
-        <v>217.0876007080078</v>
+        <v>236.6854400634766</v>
       </c>
       <c r="EW3" t="n">
-        <v>216.7532043457031</v>
+        <v>237.7160491943359</v>
       </c>
       <c r="EX3" t="n">
-        <v>216.7232818603516</v>
+        <v>239.4533233642578</v>
       </c>
       <c r="EY3" t="n">
-        <v>216.6967010498047</v>
+        <v>240.2567138671875</v>
       </c>
       <c r="EZ3" t="n">
-        <v>217.1873016357422</v>
+        <v>240.6732788085938</v>
       </c>
       <c r="FA3" t="n">
-        <v>221.2153167724609</v>
+        <v>241.9148864746094</v>
       </c>
       <c r="FB3" t="n">
-        <v>221.7305297851562</v>
+        <v>243.2328948974609</v>
       </c>
       <c r="FC3" t="n">
-        <v>220.2947998046875</v>
+        <v>246.0326385498047</v>
       </c>
       <c r="FD3" t="n">
-        <v>218.6363677978516</v>
+        <v>247.9123077392578</v>
       </c>
       <c r="FE3" t="n">
-        <v>217.8030548095703</v>
+        <v>248.8023071289062</v>
       </c>
       <c r="FF3" t="n">
-        <v>217.0822448730469</v>
+        <v>249.9306945800781</v>
       </c>
       <c r="FG3" t="n">
-        <v>216.1625061035156</v>
+        <v>252.5301361083984</v>
       </c>
       <c r="FH3" t="n">
-        <v>216.3743743896484</v>
+        <v>253.3454742431641</v>
       </c>
       <c r="FI3" t="n">
-        <v>216.5208740234375</v>
+        <v>255.8233947753906</v>
       </c>
       <c r="FJ3" t="n">
-        <v>217.0210876464844</v>
+        <v>258.3262329101562</v>
       </c>
       <c r="FK3" t="n">
-        <v>217.6055297851562</v>
+        <v>261.8712768554688</v>
       </c>
       <c r="FL3" t="n">
-        <v>219.0752258300781</v>
+        <v>262.6520690917969</v>
       </c>
       <c r="FM3" t="n">
-        <v>219.3125152587891</v>
+        <v>262.9207458496094</v>
       </c>
       <c r="FN3" t="n">
-        <v>219.3055419921875</v>
+        <v>262.6528930664062</v>
       </c>
       <c r="FO3" t="n">
-        <v>221.7805480957031</v>
+        <v>262.3881530761719</v>
       </c>
       <c r="FP3" t="n">
-        <v>224.5271453857422</v>
+        <v>262.0696716308594</v>
       </c>
       <c r="FQ3" t="n">
-        <v>227.2416076660156</v>
+        <v>261.8926086425781</v>
       </c>
       <c r="FR3" t="n">
-        <v>232.1737213134766</v>
+        <v>261.7397766113281</v>
       </c>
       <c r="FS3" t="n">
-        <v>231.1339416503906</v>
+        <v>261.5370483398438</v>
       </c>
       <c r="FT3" t="n">
-        <v>224.9465026855469</v>
+        <v>261.3732299804688</v>
       </c>
       <c r="FU3" t="n">
-        <v>218.0585327148438</v>
+        <v>261.361083984375</v>
       </c>
       <c r="FV3" t="n">
-        <v>216.9600219726562</v>
+        <v>264.431396484375</v>
       </c>
       <c r="FW3" t="n">
-        <v>217.0672302246094</v>
+        <v>267.3407592773438</v>
       </c>
       <c r="FX3" t="n">
-        <v>217.2080078125</v>
+        <v>268.0977783203125</v>
       </c>
       <c r="FY3" t="n">
-        <v>217.6793823242188</v>
+        <v>268.6004638671875</v>
       </c>
       <c r="FZ3" t="n">
-        <v>218.8179779052734</v>
+        <v>268.8481750488281</v>
       </c>
       <c r="GA3" t="n">
-        <v>217.5491027832031</v>
+        <v>268.9281005859375</v>
       </c>
       <c r="GB3" t="n">
-        <v>216.6681213378906</v>
+        <v>268.4264831542969</v>
       </c>
       <c r="GC3" t="n">
-        <v>215.5048065185547</v>
+        <v>267.71142578125</v>
       </c>
       <c r="GD3" t="n">
-        <v>215.3261413574219</v>
+        <v>266.4655151367188</v>
       </c>
       <c r="GE3" t="n">
-        <v>216.5771636962891</v>
+        <v>266.3053894042969</v>
       </c>
       <c r="GF3" t="n">
-        <v>217.3218841552734</v>
+        <v>266.0280151367188</v>
       </c>
       <c r="GG3" t="n">
-        <v>217.7964782714844</v>
+        <v>265.9637451171875</v>
       </c>
       <c r="GH3" t="n">
-        <v>217.7140960693359</v>
+        <v>265.8852233886719</v>
       </c>
       <c r="GI3" t="n">
-        <v>214.4308166503906</v>
+        <v>265.7236328125</v>
       </c>
       <c r="GJ3" t="n">
-        <v>211.1678466796875</v>
+        <v>265.0803833007812</v>
       </c>
       <c r="GK3" t="n">
-        <v>210.2480316162109</v>
+        <v>264.64697265625</v>
       </c>
       <c r="GL3" t="n">
-        <v>210.0845031738281</v>
+        <v>263.4483642578125</v>
       </c>
       <c r="GM3" t="n">
-        <v>209.9719848632812</v>
+        <v>262.8303833007812</v>
       </c>
       <c r="GN3" t="n">
-        <v>209.2400665283203</v>
+        <v>262.737060546875</v>
       </c>
       <c r="GO3" t="n">
-        <v>207.6333160400391</v>
+        <v>262.7307434082031</v>
       </c>
       <c r="GP3" t="n">
-        <v>206.4429931640625</v>
+        <v>262.7035522460938</v>
       </c>
       <c r="GQ3" t="n">
-        <v>206.0090026855469</v>
+        <v>263.2475280761719</v>
       </c>
       <c r="GR3" t="n">
-        <v>205.7876892089844</v>
+        <v>263.6694946289062</v>
       </c>
       <c r="GS3" t="n">
-        <v>205.0875244140625</v>
+        <v>263.2582397460938</v>
       </c>
       <c r="GT3" t="n">
-        <v>204.6372833251953</v>
+        <v>262.6705627441406</v>
       </c>
       <c r="GU3" t="n">
-        <v>204.0130767822266</v>
+        <v>261.4653015136719</v>
       </c>
       <c r="GV3" t="n">
-        <v>203.3765411376953</v>
+        <v>260.5533752441406</v>
       </c>
       <c r="GW3" t="n">
-        <v>202.3195495605469</v>
+        <v>260.4007568359375</v>
       </c>
       <c r="GX3" t="n">
-        <v>201.5046539306641</v>
+        <v>260.3349304199219</v>
       </c>
       <c r="GY3" t="n">
-        <v>200.5182495117188</v>
+        <v>260.2352294921875</v>
       </c>
       <c r="GZ3" t="n">
-        <v>199.2478790283203</v>
+        <v>260.1276550292969</v>
       </c>
       <c r="HA3" t="n">
-        <v>197.8643646240234</v>
+        <v>260.0003051757812</v>
       </c>
       <c r="HB3" t="n">
-        <v>197.3513793945312</v>
+        <v>259.6669311523438</v>
       </c>
       <c r="HC3" t="n">
-        <v>197.193115234375</v>
+        <v>259.2422790527344</v>
       </c>
       <c r="HD3" t="n">
-        <v>196.3505859375</v>
+        <v>259.02099609375</v>
       </c>
       <c r="HE3" t="n">
-        <v>195.5866546630859</v>
+        <v>258.5335998535156</v>
       </c>
       <c r="HF3" t="n">
-        <v>191.6736755371094</v>
+        <v>258.458740234375</v>
       </c>
       <c r="HG3" t="n">
-        <v>189.1698608398438</v>
+        <v>258.4879150390625</v>
       </c>
       <c r="HH3" t="n">
-        <v>183.441162109375</v>
+        <v>258.5178527832031</v>
       </c>
       <c r="HI3" t="n">
-        <v>180.3887481689453</v>
+        <v>258.5364074707031</v>
       </c>
       <c r="HJ3" t="n">
-        <v>178.6631164550781</v>
+        <v>258.5413208007812</v>
       </c>
       <c r="HK3" t="n">
-        <v>178.9365997314453</v>
+        <v>259.000732421875</v>
       </c>
       <c r="HL3" t="n">
-        <v>177.5635833740234</v>
+        <v>260.4404907226562</v>
       </c>
       <c r="HM3" t="n">
-        <v>174.6839752197266</v>
+        <v>262.0818481445312</v>
       </c>
       <c r="HN3" t="n">
-        <v>169.6579742431641</v>
+        <v>263.5417785644531</v>
       </c>
       <c r="HO3" t="n">
-        <v>166.1325531005859</v>
+        <v>263.077392578125</v>
       </c>
       <c r="HP3" t="n">
-        <v>162.6122436523438</v>
+        <v>261.6339416503906</v>
       </c>
       <c r="HQ3" t="n">
-        <v>158.9142913818359</v>
+        <v>261.2096252441406</v>
       </c>
       <c r="HR3" t="n">
-        <v>156.169189453125</v>
+        <v>259.8328552246094</v>
       </c>
       <c r="HS3" t="n">
-        <v>156.9337005615234</v>
+        <v>259.4921264648438</v>
       </c>
       <c r="HT3" t="n">
-        <v>157.0323944091797</v>
+        <v>259.3558654785156</v>
       </c>
       <c r="HU3" t="n">
-        <v>154.5367584228516</v>
+        <v>259.3204040527344</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>259.2637329101562</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>259.2038269042969</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>259.1347351074219</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>259.1023559570312</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>259.0492858886719</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>259.1033630371094</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>259.1602783203125</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>259.4312744140625</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>260.11376953125</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>261.7161560058594</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>262.8726501464844</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>262.991943359375</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>262.9757690429688</v>
+      </c>
+      <c r="II3" t="n">
+        <v>263.0660705566406</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>263.4017944335938</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>263.4974365234375</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>263.7626953125</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>264.1287536621094</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>264.4212341308594</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>264.47802734375</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>264.4938049316406</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>263.7994995117188</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>262.6242065429688</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>262.0686645507812</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>261.6380004882812</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>261.4704284667969</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>261.3823852539062</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>261.3277587890625</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>261.2660217285156</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>261.2554321289062</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>261.2316284179688</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>261.1921081542969</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>261.2415161132812</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>261.6429748535156</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>261.7921752929688</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>262.0585632324219</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>262.2574462890625</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>262.470458984375</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>262.3863220214844</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>262.1728820800781</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>261.50439453125</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>260.4618530273438</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>259.6731872558594</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>259.6034240722656</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>259.5069580078125</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>259.4335327148438</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>259.4452819824219</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>259.4580078125</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>259.4834289550781</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>259.5781860351562</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>259.6531982421875</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>259.6843872070312</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>259.6656494140625</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>259.6360168457031</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>259.6303100585938</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>259.6400451660156</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>259.6473693847656</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>259.6558837890625</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>259.6632080078125</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>259.6502990722656</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>259.4387512207031</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>259.3326416015625</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>259.3721008300781</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>259.4793090820312</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>259.4221496582031</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>259.3350219726562</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>259.2396850585938</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>259.2551574707031</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>259.2693481445312</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>259.2861633300781</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>259.3011169433594</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>259.3363647460938</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>259.3136596679688</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>259.2385864257812</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>259.2195129394531</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>259.2639465332031</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>259.2705688476562</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>259.2840270996094</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>259.2817077636719</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>259.2781372070312</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>259.2723999023438</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>259.2806396484375</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>259.2900390625</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>259.1945495605469</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>259.1765747070312</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>259.2985229492188</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>259.5944519042969</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>259.7581481933594</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>257.5735778808594</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>256.5237121582031</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>255.3962554931641</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>252.2807159423828</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>245.9521331787109</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>238.2723083496094</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>234.8167572021484</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>233.0740051269531</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>226.626708984375</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>223.0302886962891</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>217.8083953857422</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>214.2336273193359</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>211.7464599609375</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>207.3059234619141</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>192.7702026367188</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>180.1001129150391</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>161.7185821533203</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>145.1546020507812</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>139.95556640625</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>135.1662902832031</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>131.1874237060547</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>132.8802947998047</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>139.0806121826172</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>142.9389190673828</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>143.9003143310547</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>138.8848724365234</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>141.309814453125</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>156.6454772949219</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>173.6327972412109</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>193.6111602783203</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>246.2223205566406</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>291.0003356933594</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>307.8792419433594</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>332.3377990722656</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>332.9881896972656</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>330.3135986328125</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>328.2165222167969</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>328.3175354003906</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>332.9757995605469</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>335.8123779296875</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>341.829833984375</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>346.601318359375</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>339.5968933105469</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>327.5712890625</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>319.6585083007812</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>314.9974060058594</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>305.1196594238281</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>296.0990905761719</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>291.1806030273438</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>287.0536804199219</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>285.7010498046875</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>288.8520202636719</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>295.9786682128906</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>303.5080261230469</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>305.9370422363281</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>308.6145935058594</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>310.829345703125</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>311.2767944335938</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>311.3027038574219</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>311.8904418945312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>920.1791381835938</v>
+        <v>1030.704467773438</v>
       </c>
       <c r="B4" t="n">
-        <v>933.9102172851562</v>
+        <v>1036.445190429688</v>
       </c>
       <c r="C4" t="n">
-        <v>947.2847900390625</v>
+        <v>1039.801391601562</v>
       </c>
       <c r="D4" t="n">
-        <v>966.7720947265625</v>
+        <v>1044.00439453125</v>
       </c>
       <c r="E4" t="n">
-        <v>990.4688110351562</v>
+        <v>1049.600341796875</v>
       </c>
       <c r="F4" t="n">
-        <v>1011.865905761719</v>
+        <v>1058.14208984375</v>
       </c>
       <c r="G4" t="n">
-        <v>1037.6435546875</v>
+        <v>1068.966674804688</v>
       </c>
       <c r="H4" t="n">
-        <v>1066.480590820312</v>
+        <v>1079.744873046875</v>
       </c>
       <c r="I4" t="n">
-        <v>1098.66796875</v>
+        <v>1089.661376953125</v>
       </c>
       <c r="J4" t="n">
-        <v>1132.567504882812</v>
+        <v>1099.3740234375</v>
       </c>
       <c r="K4" t="n">
-        <v>1166.295043945312</v>
+        <v>1110.482666015625</v>
       </c>
       <c r="L4" t="n">
-        <v>1195.619506835938</v>
+        <v>1121.220458984375</v>
       </c>
       <c r="M4" t="n">
-        <v>1222.454711914062</v>
+        <v>1178.934692382812</v>
       </c>
       <c r="N4" t="n">
-        <v>1248.387451171875</v>
+        <v>1191.15478515625</v>
       </c>
       <c r="O4" t="n">
-        <v>1284.481689453125</v>
+        <v>1224.174194335938</v>
       </c>
       <c r="P4" t="n">
-        <v>1327.79541015625</v>
+        <v>1236.025268554688</v>
       </c>
       <c r="Q4" t="n">
-        <v>1383.104125976562</v>
+        <v>1244.60791015625</v>
       </c>
       <c r="R4" t="n">
-        <v>1425.2216796875</v>
+        <v>1252.744018554688</v>
       </c>
       <c r="S4" t="n">
-        <v>1457.780883789062</v>
+        <v>1260.96923828125</v>
       </c>
       <c r="T4" t="n">
-        <v>1486.703369140625</v>
+        <v>1278.371826171875</v>
       </c>
       <c r="U4" t="n">
-        <v>1524.51318359375</v>
+        <v>1295.223266601562</v>
       </c>
       <c r="V4" t="n">
-        <v>1567.177978515625</v>
+        <v>1314.107421875</v>
       </c>
       <c r="W4" t="n">
-        <v>1609.948608398438</v>
+        <v>1333.518432617188</v>
       </c>
       <c r="X4" t="n">
-        <v>1652.158325195312</v>
+        <v>1349.95361328125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1694.460083007812</v>
+        <v>1360.506225585938</v>
       </c>
       <c r="Z4" t="n">
-        <v>1737.736328125</v>
+        <v>1368.959228515625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1782.17822265625</v>
+        <v>1381.249389648438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1829.087890625</v>
+        <v>1393.623413085938</v>
       </c>
       <c r="AC4" t="n">
-        <v>1872.856201171875</v>
+        <v>1405.94921875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1908.458374023438</v>
+        <v>1417.838012695312</v>
       </c>
       <c r="AE4" t="n">
-        <v>1944.208618164062</v>
+        <v>1429.787109375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1984.874755859375</v>
+        <v>1439.646850585938</v>
       </c>
       <c r="AG4" t="n">
-        <v>2023.121215820312</v>
+        <v>1446.600952148438</v>
       </c>
       <c r="AH4" t="n">
-        <v>2053.583251953125</v>
+        <v>1453.956176757812</v>
       </c>
       <c r="AI4" t="n">
-        <v>2078.083251953125</v>
+        <v>1459.930297851562</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2106.4462890625</v>
+        <v>1465.458862304688</v>
       </c>
       <c r="AK4" t="n">
-        <v>2145.04248046875</v>
+        <v>1468.589599609375</v>
       </c>
       <c r="AL4" t="n">
-        <v>2191.5341796875</v>
+        <v>1469.505126953125</v>
       </c>
       <c r="AM4" t="n">
-        <v>2232.11474609375</v>
+        <v>1469.158203125</v>
       </c>
       <c r="AN4" t="n">
-        <v>2265.518310546875</v>
+        <v>1468.487548828125</v>
       </c>
       <c r="AO4" t="n">
-        <v>2322.85888671875</v>
+        <v>1467.401489257812</v>
       </c>
       <c r="AP4" t="n">
-        <v>2361.703125</v>
+        <v>1465.820068359375</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2408.50341796875</v>
+        <v>1464.1640625</v>
       </c>
       <c r="AR4" t="n">
-        <v>2456.10205078125</v>
+        <v>1462.940307617188</v>
       </c>
       <c r="AS4" t="n">
-        <v>2492.219970703125</v>
+        <v>1460.526123046875</v>
       </c>
       <c r="AT4" t="n">
-        <v>2521.7275390625</v>
+        <v>1455.607055664062</v>
       </c>
       <c r="AU4" t="n">
-        <v>2550.43798828125</v>
+        <v>1448.252563476562</v>
       </c>
       <c r="AV4" t="n">
-        <v>2582.6103515625</v>
+        <v>1440.01416015625</v>
       </c>
       <c r="AW4" t="n">
-        <v>2630.541259765625</v>
+        <v>1431.749755859375</v>
       </c>
       <c r="AX4" t="n">
-        <v>2686.818603515625</v>
+        <v>1423.873779296875</v>
       </c>
       <c r="AY4" t="n">
-        <v>2728.06787109375</v>
+        <v>1415.45751953125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2753.718994140625</v>
+        <v>1405.855346679688</v>
       </c>
       <c r="BA4" t="n">
-        <v>2767.94287109375</v>
+        <v>1394.882934570312</v>
       </c>
       <c r="BB4" t="n">
-        <v>2780.006103515625</v>
+        <v>1385.404296875</v>
       </c>
       <c r="BC4" t="n">
-        <v>2794.70556640625</v>
+        <v>1376.350830078125</v>
       </c>
       <c r="BD4" t="n">
-        <v>2827.797607421875</v>
+        <v>1369.549560546875</v>
       </c>
       <c r="BE4" t="n">
-        <v>2858.42578125</v>
+        <v>1363.352416992188</v>
       </c>
       <c r="BF4" t="n">
-        <v>2894.56884765625</v>
+        <v>1357.093139648438</v>
       </c>
       <c r="BG4" t="n">
-        <v>2946.760498046875</v>
+        <v>1349.893676757812</v>
       </c>
       <c r="BH4" t="n">
-        <v>3000.82763671875</v>
+        <v>1343.326049804688</v>
       </c>
       <c r="BI4" t="n">
-        <v>3053.3515625</v>
+        <v>1337.673583984375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3089.891357421875</v>
+        <v>1331.470703125</v>
       </c>
       <c r="BK4" t="n">
-        <v>3115.114990234375</v>
+        <v>1324.356323242188</v>
       </c>
       <c r="BL4" t="n">
-        <v>3130.0361328125</v>
+        <v>1316.892944335938</v>
       </c>
       <c r="BM4" t="n">
-        <v>3142.3818359375</v>
+        <v>1309.686645507812</v>
       </c>
       <c r="BN4" t="n">
-        <v>3153.826904296875</v>
+        <v>1302.253784179688</v>
       </c>
       <c r="BO4" t="n">
-        <v>3168.546630859375</v>
+        <v>1291.811401367188</v>
       </c>
       <c r="BP4" t="n">
-        <v>3183.058349609375</v>
+        <v>1288.455200195312</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3208.77490234375</v>
+        <v>1284.910278320312</v>
       </c>
       <c r="BR4" t="n">
-        <v>3232.87353515625</v>
+        <v>1281.264404296875</v>
       </c>
       <c r="BS4" t="n">
-        <v>3249.5673828125</v>
+        <v>1278.162963867188</v>
       </c>
       <c r="BT4" t="n">
-        <v>3264.72021484375</v>
+        <v>1274.786499023438</v>
       </c>
       <c r="BU4" t="n">
-        <v>3277.35791015625</v>
+        <v>1271.36669921875</v>
       </c>
       <c r="BV4" t="n">
-        <v>3290.51513671875</v>
+        <v>1268.039916992188</v>
       </c>
       <c r="BW4" t="n">
-        <v>3316.95458984375</v>
+        <v>1264.650512695312</v>
       </c>
       <c r="BX4" t="n">
-        <v>3353.24072265625</v>
+        <v>1261.041015625</v>
       </c>
       <c r="BY4" t="n">
-        <v>3376.790771484375</v>
+        <v>1254.708251953125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3387.99560546875</v>
+        <v>1250.049682617188</v>
       </c>
       <c r="CA4" t="n">
-        <v>3394.29443359375</v>
+        <v>1245.148559570312</v>
       </c>
       <c r="CB4" t="n">
-        <v>3418.422119140625</v>
+        <v>1240.582275390625</v>
       </c>
       <c r="CC4" t="n">
-        <v>3448.465576171875</v>
+        <v>1236.64111328125</v>
       </c>
       <c r="CD4" t="n">
-        <v>3479.405029296875</v>
+        <v>1232.38720703125</v>
       </c>
       <c r="CE4" t="n">
-        <v>3505.17529296875</v>
+        <v>1226.858642578125</v>
       </c>
       <c r="CF4" t="n">
-        <v>3527.856201171875</v>
+        <v>1224.721801757812</v>
       </c>
       <c r="CG4" t="n">
-        <v>3545.962158203125</v>
+        <v>1221.821044921875</v>
       </c>
       <c r="CH4" t="n">
-        <v>3562.322998046875</v>
+        <v>1218.33056640625</v>
       </c>
       <c r="CI4" t="n">
-        <v>3577.362060546875</v>
+        <v>1215.670532226562</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3589.7578125</v>
+        <v>1212.99560546875</v>
       </c>
       <c r="CK4" t="n">
-        <v>3596.9130859375</v>
+        <v>1211.210327148438</v>
       </c>
       <c r="CL4" t="n">
-        <v>3604.019775390625</v>
+        <v>1209.931030273438</v>
       </c>
       <c r="CM4" t="n">
-        <v>3609.24609375</v>
+        <v>1208.540893554688</v>
       </c>
       <c r="CN4" t="n">
-        <v>3616.792236328125</v>
+        <v>1206.928955078125</v>
       </c>
       <c r="CO4" t="n">
-        <v>3624.89453125</v>
+        <v>1206.36572265625</v>
       </c>
       <c r="CP4" t="n">
-        <v>3632.128173828125</v>
+        <v>1205.95166015625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3641.2431640625</v>
+        <v>1205.541015625</v>
       </c>
       <c r="CR4" t="n">
-        <v>3651.44189453125</v>
+        <v>1205.407470703125</v>
       </c>
       <c r="CS4" t="n">
-        <v>3661.171630859375</v>
+        <v>1205.228759765625</v>
       </c>
       <c r="CT4" t="n">
-        <v>3668.69287109375</v>
+        <v>1205.05615234375</v>
       </c>
       <c r="CU4" t="n">
-        <v>3667.476806640625</v>
+        <v>1204.973510742188</v>
       </c>
       <c r="CV4" t="n">
-        <v>3664.265869140625</v>
+        <v>1204.885009765625</v>
       </c>
       <c r="CW4" t="n">
-        <v>3663.9833984375</v>
+        <v>1205.488403320312</v>
       </c>
       <c r="CX4" t="n">
-        <v>3672.70556640625</v>
+        <v>1207.511108398438</v>
       </c>
       <c r="CY4" t="n">
-        <v>3690.278076171875</v>
+        <v>1209.0771484375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3698.734130859375</v>
+        <v>1213.453491210938</v>
       </c>
       <c r="DA4" t="n">
-        <v>3699.845947265625</v>
+        <v>1215.049682617188</v>
       </c>
       <c r="DB4" t="n">
-        <v>3698.1259765625</v>
+        <v>1216.41064453125</v>
       </c>
       <c r="DC4" t="n">
-        <v>3698.704833984375</v>
+        <v>1217.746948242188</v>
       </c>
       <c r="DD4" t="n">
-        <v>3698.337890625</v>
+        <v>1219.249145507812</v>
       </c>
       <c r="DE4" t="n">
-        <v>3697.515869140625</v>
+        <v>1222.2587890625</v>
       </c>
       <c r="DF4" t="n">
-        <v>3691.482177734375</v>
+        <v>1224.766479492188</v>
       </c>
       <c r="DG4" t="n">
-        <v>3691.775390625</v>
+        <v>1226.412841796875</v>
       </c>
       <c r="DH4" t="n">
-        <v>3692.4814453125</v>
+        <v>1229.607177734375</v>
       </c>
       <c r="DI4" t="n">
-        <v>3689.96826171875</v>
+        <v>1231.354370117188</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3684.260498046875</v>
+        <v>1236.217041015625</v>
       </c>
       <c r="DK4" t="n">
-        <v>3679.682373046875</v>
+        <v>1240.6796875</v>
       </c>
       <c r="DL4" t="n">
-        <v>3678.91845703125</v>
+        <v>1242.55712890625</v>
       </c>
       <c r="DM4" t="n">
-        <v>3677.482666015625</v>
+        <v>1244.24365234375</v>
       </c>
       <c r="DN4" t="n">
-        <v>3673.451416015625</v>
+        <v>1245.625732421875</v>
       </c>
       <c r="DO4" t="n">
-        <v>3652.13623046875</v>
+        <v>1246.920166015625</v>
       </c>
       <c r="DP4" t="n">
-        <v>3644.77001953125</v>
+        <v>1248.300659179688</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3636.876953125</v>
+        <v>1251.538818359375</v>
       </c>
       <c r="DR4" t="n">
-        <v>3627.846435546875</v>
+        <v>1253.05078125</v>
       </c>
       <c r="DS4" t="n">
-        <v>3622.88671875</v>
+        <v>1254.370239257812</v>
       </c>
       <c r="DT4" t="n">
-        <v>3622.743408203125</v>
+        <v>1257.791748046875</v>
       </c>
       <c r="DU4" t="n">
-        <v>3618.095458984375</v>
+        <v>1265.4150390625</v>
       </c>
       <c r="DV4" t="n">
-        <v>3610.240234375</v>
+        <v>1269.194091796875</v>
       </c>
       <c r="DW4" t="n">
-        <v>3600.306396484375</v>
+        <v>1276.725708007812</v>
       </c>
       <c r="DX4" t="n">
-        <v>3590.968017578125</v>
+        <v>1282.19775390625</v>
       </c>
       <c r="DY4" t="n">
-        <v>3577.6982421875</v>
+        <v>1287.703491210938</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3568.603759765625</v>
+        <v>1302.606079101562</v>
       </c>
       <c r="EA4" t="n">
-        <v>3565.251220703125</v>
+        <v>1310.457763671875</v>
       </c>
       <c r="EB4" t="n">
-        <v>3565.130126953125</v>
+        <v>1325.103149414062</v>
       </c>
       <c r="EC4" t="n">
-        <v>3564.742431640625</v>
+        <v>1332.693237304688</v>
       </c>
       <c r="ED4" t="n">
-        <v>3560.73828125</v>
+        <v>1340.2216796875</v>
       </c>
       <c r="EE4" t="n">
-        <v>3559.42236328125</v>
+        <v>1355.687255859375</v>
       </c>
       <c r="EF4" t="n">
-        <v>3556.031494140625</v>
+        <v>1375.0908203125</v>
       </c>
       <c r="EG4" t="n">
-        <v>3543.699951171875</v>
+        <v>1399.036987304688</v>
       </c>
       <c r="EH4" t="n">
-        <v>3527.8798828125</v>
+        <v>1410.934448242188</v>
       </c>
       <c r="EI4" t="n">
-        <v>3516.525634765625</v>
+        <v>1429.842529296875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3489.6953125</v>
+        <v>1443.375854492188</v>
       </c>
       <c r="EK4" t="n">
-        <v>3478.839111328125</v>
+        <v>1468.400512695312</v>
       </c>
       <c r="EL4" t="n">
-        <v>3468.624755859375</v>
+        <v>1478.770874023438</v>
       </c>
       <c r="EM4" t="n">
-        <v>3456.13330078125</v>
+        <v>1496.354125976562</v>
       </c>
       <c r="EN4" t="n">
-        <v>3443.0439453125</v>
+        <v>1506.559204101562</v>
       </c>
       <c r="EO4" t="n">
-        <v>3420.39892578125</v>
+        <v>1524.177490234375</v>
       </c>
       <c r="EP4" t="n">
-        <v>3415.09326171875</v>
+        <v>1535.869873046875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3426.179443359375</v>
+        <v>1572.903076171875</v>
       </c>
       <c r="ER4" t="n">
-        <v>3433.114501953125</v>
+        <v>1585.079467773438</v>
       </c>
       <c r="ES4" t="n">
-        <v>3428.330322265625</v>
+        <v>1613.21728515625</v>
       </c>
       <c r="ET4" t="n">
-        <v>3427.1728515625</v>
+        <v>1645.336181640625</v>
       </c>
       <c r="EU4" t="n">
-        <v>3425.683349609375</v>
+        <v>1665.009521484375</v>
       </c>
       <c r="EV4" t="n">
-        <v>3426.65576171875</v>
+        <v>1684.709716796875</v>
       </c>
       <c r="EW4" t="n">
-        <v>3434.46533203125</v>
+        <v>1730.8779296875</v>
       </c>
       <c r="EX4" t="n">
-        <v>3435.642822265625</v>
+        <v>1775.161865234375</v>
       </c>
       <c r="EY4" t="n">
-        <v>3438.86669921875</v>
+        <v>1795.461669921875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3442.8955078125</v>
+        <v>1819.15771484375</v>
       </c>
       <c r="FA4" t="n">
-        <v>3443.71728515625</v>
+        <v>1855.456420898438</v>
       </c>
       <c r="FB4" t="n">
-        <v>3451.749267578125</v>
+        <v>1868.174560546875</v>
       </c>
       <c r="FC4" t="n">
-        <v>3482.818359375</v>
+        <v>1906.531005859375</v>
       </c>
       <c r="FD4" t="n">
-        <v>3503.6142578125</v>
+        <v>1966.044799804688</v>
       </c>
       <c r="FE4" t="n">
-        <v>3506.239013671875</v>
+        <v>1987.048828125</v>
       </c>
       <c r="FF4" t="n">
-        <v>3507.802978515625</v>
+        <v>2001.982666015625</v>
       </c>
       <c r="FG4" t="n">
-        <v>3514.49267578125</v>
+        <v>2032.60107421875</v>
       </c>
       <c r="FH4" t="n">
-        <v>3520.52099609375</v>
+        <v>2054.476318359375</v>
       </c>
       <c r="FI4" t="n">
-        <v>3521.92578125</v>
+        <v>2099.114013671875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3521.715576171875</v>
+        <v>2122.646728515625</v>
       </c>
       <c r="FK4" t="n">
-        <v>3517.648193359375</v>
+        <v>2172.010498046875</v>
       </c>
       <c r="FL4" t="n">
-        <v>3508.852294921875</v>
+        <v>2192.24755859375</v>
       </c>
       <c r="FM4" t="n">
-        <v>3510.5283203125</v>
+        <v>2222.6044921875</v>
       </c>
       <c r="FN4" t="n">
-        <v>3506.72265625</v>
+        <v>2234.7587890625</v>
       </c>
       <c r="FO4" t="n">
-        <v>3496.3544921875</v>
+        <v>2245.6591796875</v>
       </c>
       <c r="FP4" t="n">
-        <v>3467.195068359375</v>
+        <v>2267.37939453125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3448.452392578125</v>
+        <v>2287.634033203125</v>
       </c>
       <c r="FR4" t="n">
-        <v>3425.26953125</v>
+        <v>2308.70849609375</v>
       </c>
       <c r="FS4" t="n">
-        <v>3434.572265625</v>
+        <v>2334.152099609375</v>
       </c>
       <c r="FT4" t="n">
-        <v>3454.930419921875</v>
+        <v>2358.134765625</v>
       </c>
       <c r="FU4" t="n">
-        <v>3464.839111328125</v>
+        <v>2366.316650390625</v>
       </c>
       <c r="FV4" t="n">
-        <v>3448.397705078125</v>
+        <v>2378.89697265625</v>
       </c>
       <c r="FW4" t="n">
-        <v>3420.322265625</v>
+        <v>2380.229248046875</v>
       </c>
       <c r="FX4" t="n">
-        <v>3414.987060546875</v>
+        <v>2379.271240234375</v>
       </c>
       <c r="FY4" t="n">
-        <v>3408.520263671875</v>
+        <v>2378.18896484375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3386.594970703125</v>
+        <v>2380.703125</v>
       </c>
       <c r="GA4" t="n">
-        <v>3343.62939453125</v>
+        <v>2383.1767578125</v>
       </c>
       <c r="GB4" t="n">
-        <v>3331.301025390625</v>
+        <v>2388.696044921875</v>
       </c>
       <c r="GC4" t="n">
-        <v>3303.86376953125</v>
+        <v>2392.12451171875</v>
       </c>
       <c r="GD4" t="n">
-        <v>3288.560302734375</v>
+        <v>2400.80126953125</v>
       </c>
       <c r="GE4" t="n">
-        <v>3232.513671875</v>
+        <v>2403.334716796875</v>
       </c>
       <c r="GF4" t="n">
-        <v>3211.518310546875</v>
+        <v>2408.065185546875</v>
       </c>
       <c r="GG4" t="n">
-        <v>3178.02587890625</v>
+        <v>2407.578125</v>
       </c>
       <c r="GH4" t="n">
-        <v>3157.79638671875</v>
+        <v>2404.080078125</v>
       </c>
       <c r="GI4" t="n">
-        <v>3092.050048828125</v>
+        <v>2398.270751953125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>3016.2939453125</v>
+        <v>2393.14404296875</v>
       </c>
       <c r="GK4" t="n">
-        <v>2929.935791015625</v>
+        <v>2390.434814453125</v>
       </c>
       <c r="GL4" t="n">
-        <v>2867.16552734375</v>
+        <v>2391.9638671875</v>
       </c>
       <c r="GM4" t="n">
-        <v>2841.529052734375</v>
+        <v>2392.056884765625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2820.451171875</v>
+        <v>2392.058837890625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2768.39111328125</v>
+        <v>2389.6064453125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2720.34326171875</v>
+        <v>2385.679931640625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2691.672607421875</v>
+        <v>2379.615478515625</v>
       </c>
       <c r="GR4" t="n">
-        <v>2652.67041015625</v>
+        <v>2372.583740234375</v>
       </c>
       <c r="GS4" t="n">
-        <v>2559.2158203125</v>
+        <v>2369.159912109375</v>
       </c>
       <c r="GT4" t="n">
-        <v>2515.265380859375</v>
+        <v>2367.438232421875</v>
       </c>
       <c r="GU4" t="n">
-        <v>2457.444091796875</v>
+        <v>2363.14404296875</v>
       </c>
       <c r="GV4" t="n">
-        <v>2400.5419921875</v>
+        <v>2357.822265625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2314.32470703125</v>
+        <v>2354.509765625</v>
       </c>
       <c r="GX4" t="n">
-        <v>2251.00830078125</v>
+        <v>2348.893310546875</v>
       </c>
       <c r="GY4" t="n">
-        <v>2198.121826171875</v>
+        <v>2345.306640625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2132.968017578125</v>
+        <v>2344.841552734375</v>
       </c>
       <c r="HA4" t="n">
-        <v>2054.806396484375</v>
+        <v>2344.790771484375</v>
       </c>
       <c r="HB4" t="n">
-        <v>2006.43212890625</v>
+        <v>2343.685791015625</v>
       </c>
       <c r="HC4" t="n">
-        <v>1924.266357421875</v>
+        <v>2341.850341796875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1839.0791015625</v>
+        <v>2340.65673828125</v>
       </c>
       <c r="HE4" t="n">
-        <v>1808.32763671875</v>
+        <v>2339.5576171875</v>
       </c>
       <c r="HF4" t="n">
-        <v>1710.903686523438</v>
+        <v>2337.212158203125</v>
       </c>
       <c r="HG4" t="n">
-        <v>1650.070678710938</v>
+        <v>2331.769287109375</v>
       </c>
       <c r="HH4" t="n">
-        <v>1557.601684570312</v>
+        <v>2331.309326171875</v>
       </c>
       <c r="HI4" t="n">
-        <v>1494.454223632812</v>
+        <v>2331.64208984375</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1432.512084960938</v>
+        <v>2332.420654296875</v>
       </c>
       <c r="HK4" t="n">
-        <v>1368.023071289062</v>
+        <v>2331.273193359375</v>
       </c>
       <c r="HL4" t="n">
-        <v>1299.620971679688</v>
+        <v>2311.12109375</v>
       </c>
       <c r="HM4" t="n">
-        <v>1233.341430664062</v>
+        <v>2291.494140625</v>
       </c>
       <c r="HN4" t="n">
-        <v>1150.364135742188</v>
+        <v>2282.116943359375</v>
       </c>
       <c r="HO4" t="n">
-        <v>1105.080810546875</v>
+        <v>2272.216552734375</v>
       </c>
       <c r="HP4" t="n">
-        <v>1066.380493164062</v>
+        <v>2263.253662109375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1020.207092285156</v>
+        <v>2257.3466796875</v>
       </c>
       <c r="HR4" t="n">
-        <v>965.9180297851562</v>
+        <v>2245.59228515625</v>
       </c>
       <c r="HS4" t="n">
-        <v>916.0779418945312</v>
+        <v>2238.742919921875</v>
       </c>
       <c r="HT4" t="n">
-        <v>876.1734008789062</v>
+        <v>2230.0263671875</v>
       </c>
       <c r="HU4" t="n">
-        <v>832.4900512695312</v>
+        <v>2224.56640625</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2221.384521484375</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2218.29638671875</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2217.1826171875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2216.948486328125</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2216.85205078125</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2216.810546875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2216.800048828125</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2216.78125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2216.7470703125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2218.6943359375</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2221.830078125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2223.705078125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2225.908203125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2230.752197265625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2236.561279296875</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2252.656982421875</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2254.052001953125</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2259.78466796875</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2272.384521484375</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2275.831787109375</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2276.766845703125</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2288.77587890625</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2302.582275390625</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2307.41650390625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2311.902587890625</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2314.152099609375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2314.8671875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2315.24462890625</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2316.244384765625</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2316.1630859375</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2315.9404296875</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2315.76171875</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2313.146484375</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2301.355224609375</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2295.21923828125</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2283.392822265625</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2273.641845703125</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2264.618896484375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2259.6845703125</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2256.696044921875</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2252.031005859375</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2249.085205078125</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2240.041259765625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2236.378662109375</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2235.201171875</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2232.900634765625</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2229.513671875</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2226.33056640625</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2223.39892578125</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2216.5322265625</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2211.161865234375</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2207.016845703125</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2205.070068359375</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2202.63671875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2201.765869140625</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2200.889404296875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2200.346435546875</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2199.75390625</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2199.100341796875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2197.223388671875</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2192.30029296875</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2191.0859375</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2192.441162109375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2196.33349609375</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2200.886474609375</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2206.183349609375</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2211.824951171875</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2211.633544921875</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2211.205078125</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2210.06005859375</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2209.308349609375</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2210.89599609375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2210.84912109375</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2211.0537109375</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2212.5576171875</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2217.280029296875</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2217.79296875</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2217.612548828125</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2217.78515625</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2217.804443359375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2217.783203125</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2217.666259765625</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2217.308349609375</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2212.32861328125</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2199.66796875</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2184.4501953125</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2162.328369140625</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2139.6748046875</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2083.75830078125</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>2026.088989257812</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1986.4638671875</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1903.068725585938</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1798.766845703125</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1712.606323242188</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1659.872436523438</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1608.30078125</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1550.895874023438</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1504.833862304688</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1425.455444335938</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1325.849365234375</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1254.973510742188</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1178.1083984375</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>1048.005859375</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>980.385009765625</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>925.05419921875</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>879.5750732421875</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>852.206787109375</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>823.5936889648438</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>796.8429565429688</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>784.5432739257812</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>781.2393798828125</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>780.6338500976562</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>793.3244018554688</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>805.5029296875</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>805.7974853515625</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>794.58154296875</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>784.8626098632812</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>782.2461547851562</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>794.42626953125</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>828.1363525390625</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>847.4808959960938</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>895.622314453125</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>929.5426025390625</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>945.8594970703125</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>960.253662109375</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>959.1920776367188</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>917.05859375</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>891.5740356445312</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>835.974365234375</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>782.6709594726562</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>778.8641967773438</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>780.0308837890625</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>765.3786010742188</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>745.4539184570312</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>723.4160766601562</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>708.7208862304688</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>705.0660400390625</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>706.6206665039062</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>717.8997802734375</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>725.8336181640625</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>732.2694702148438</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>742.0513305664062</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>753.1251831054688</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>762.9426879882812</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>767.9840087890625</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>768.3461303710938</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>767.660888671875</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>756.7281494140625</v>
       </c>
     </row>
   </sheetData>

--- a/left_collar_Data_Variable.xlsx
+++ b/left_collar_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>320.4655151367188</v>
+        <v>270.3026428222656</v>
       </c>
       <c r="B2" t="n">
-        <v>325.3579406738281</v>
+        <v>272.4501037597656</v>
       </c>
       <c r="C2" t="n">
-        <v>331.4807739257812</v>
+        <v>274.1061706542969</v>
       </c>
       <c r="D2" t="n">
-        <v>336.6151123046875</v>
+        <v>275.8815002441406</v>
       </c>
       <c r="E2" t="n">
-        <v>343.9468994140625</v>
+        <v>278.2379455566406</v>
       </c>
       <c r="F2" t="n">
-        <v>353.8989868164062</v>
+        <v>281.9580688476562</v>
       </c>
       <c r="G2" t="n">
-        <v>365.2693176269531</v>
+        <v>286.151123046875</v>
       </c>
       <c r="H2" t="n">
-        <v>374.8064880371094</v>
+        <v>291.5389099121094</v>
       </c>
       <c r="I2" t="n">
-        <v>382.998291015625</v>
+        <v>296.1821899414062</v>
       </c>
       <c r="J2" t="n">
-        <v>390.5164794921875</v>
+        <v>302.3777160644531</v>
       </c>
       <c r="K2" t="n">
-        <v>398.550537109375</v>
+        <v>307.9056091308594</v>
       </c>
       <c r="L2" t="n">
-        <v>406.3445434570312</v>
+        <v>313.018798828125</v>
       </c>
       <c r="M2" t="n">
-        <v>438.6161804199219</v>
+        <v>317.5162658691406</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2198486328125</v>
+        <v>323.3168334960938</v>
       </c>
       <c r="O2" t="n">
-        <v>441.1439514160156</v>
+        <v>351.6779174804688</v>
       </c>
       <c r="P2" t="n">
-        <v>439.0482177734375</v>
+        <v>352.9289245605469</v>
       </c>
       <c r="Q2" t="n">
-        <v>437.6661376953125</v>
+        <v>353.3706665039062</v>
       </c>
       <c r="R2" t="n">
-        <v>436.4841918945312</v>
+        <v>353.359375</v>
       </c>
       <c r="S2" t="n">
-        <v>435.2044067382812</v>
+        <v>353.0080871582031</v>
       </c>
       <c r="T2" t="n">
-        <v>432.330078125</v>
+        <v>352.0863647460938</v>
       </c>
       <c r="U2" t="n">
-        <v>428.4580993652344</v>
+        <v>351.1475219726562</v>
       </c>
       <c r="V2" t="n">
-        <v>421.926025390625</v>
+        <v>350.406982421875</v>
       </c>
       <c r="W2" t="n">
-        <v>415.8190307617188</v>
+        <v>349.1151428222656</v>
       </c>
       <c r="X2" t="n">
-        <v>410.8143920898438</v>
+        <v>347.98681640625</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.5098571777344</v>
+        <v>346.3790283203125</v>
       </c>
       <c r="Z2" t="n">
-        <v>402.9290466308594</v>
+        <v>344.5621337890625</v>
       </c>
       <c r="AA2" t="n">
-        <v>398.5302124023438</v>
+        <v>343.082275390625</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.6419982910156</v>
+        <v>342.1507263183594</v>
       </c>
       <c r="AC2" t="n">
-        <v>391.2413940429688</v>
+        <v>341.5145263671875</v>
       </c>
       <c r="AD2" t="n">
-        <v>388.1302185058594</v>
+        <v>340.98486328125</v>
       </c>
       <c r="AE2" t="n">
-        <v>385.7417602539062</v>
+        <v>340.4517822265625</v>
       </c>
       <c r="AF2" t="n">
-        <v>383.3714599609375</v>
+        <v>339.7589416503906</v>
       </c>
       <c r="AG2" t="n">
-        <v>381.2748413085938</v>
+        <v>339.0106811523438</v>
       </c>
       <c r="AH2" t="n">
-        <v>379.9036254882812</v>
+        <v>338.0817260742188</v>
       </c>
       <c r="AI2" t="n">
-        <v>378.4097595214844</v>
+        <v>337.0968017578125</v>
       </c>
       <c r="AJ2" t="n">
-        <v>377.3956298828125</v>
+        <v>336.2169799804688</v>
       </c>
       <c r="AK2" t="n">
-        <v>375.9674377441406</v>
+        <v>335.4727478027344</v>
       </c>
       <c r="AL2" t="n">
-        <v>374.296875</v>
+        <v>334.6827697753906</v>
       </c>
       <c r="AM2" t="n">
-        <v>372.54541015625</v>
+        <v>334.0409545898438</v>
       </c>
       <c r="AN2" t="n">
-        <v>371.1969604492188</v>
+        <v>333.4293212890625</v>
       </c>
       <c r="AO2" t="n">
-        <v>370.1694946289062</v>
+        <v>333.0978088378906</v>
       </c>
       <c r="AP2" t="n">
-        <v>369.0552368164062</v>
+        <v>332.758544921875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>368.2140502929688</v>
+        <v>332.3713684082031</v>
       </c>
       <c r="AR2" t="n">
-        <v>367.4066772460938</v>
+        <v>332.0623779296875</v>
       </c>
       <c r="AS2" t="n">
-        <v>366.9957885742188</v>
+        <v>331.8242797851562</v>
       </c>
       <c r="AT2" t="n">
-        <v>366.5703735351562</v>
+        <v>331.6090087890625</v>
       </c>
       <c r="AU2" t="n">
-        <v>366.40576171875</v>
+        <v>331.3985900878906</v>
       </c>
       <c r="AV2" t="n">
-        <v>366.2687377929688</v>
+        <v>331.3967895507812</v>
       </c>
       <c r="AW2" t="n">
-        <v>366.242919921875</v>
+        <v>331.4603881835938</v>
       </c>
       <c r="AX2" t="n">
-        <v>366.0671691894531</v>
+        <v>331.5350952148438</v>
       </c>
       <c r="AY2" t="n">
-        <v>365.7527160644531</v>
+        <v>331.4618225097656</v>
       </c>
       <c r="AZ2" t="n">
-        <v>365.3459167480469</v>
+        <v>331.371826171875</v>
       </c>
       <c r="BA2" t="n">
-        <v>365.0987548828125</v>
+        <v>331.2526245117188</v>
       </c>
       <c r="BB2" t="n">
-        <v>364.7364807128906</v>
+        <v>331.1632690429688</v>
       </c>
       <c r="BC2" t="n">
-        <v>364.3505859375</v>
+        <v>331.07373046875</v>
       </c>
       <c r="BD2" t="n">
-        <v>363.8368530273438</v>
+        <v>331.1583862304688</v>
       </c>
       <c r="BE2" t="n">
-        <v>363.2090454101562</v>
+        <v>331.559814453125</v>
       </c>
       <c r="BF2" t="n">
-        <v>362.4401245117188</v>
+        <v>332.2861022949219</v>
       </c>
       <c r="BG2" t="n">
-        <v>361.8609008789062</v>
+        <v>333.0923156738281</v>
       </c>
       <c r="BH2" t="n">
-        <v>360.7724304199219</v>
+        <v>333.8269653320312</v>
       </c>
       <c r="BI2" t="n">
-        <v>358.4292907714844</v>
+        <v>334.2861328125</v>
       </c>
       <c r="BJ2" t="n">
-        <v>355.6969604492188</v>
+        <v>334.5078125</v>
       </c>
       <c r="BK2" t="n">
-        <v>351.8693542480469</v>
+        <v>334.5669555664062</v>
       </c>
       <c r="BL2" t="n">
-        <v>347.6953735351562</v>
+        <v>334.5983276367188</v>
       </c>
       <c r="BM2" t="n">
-        <v>343.7590942382812</v>
+        <v>334.614501953125</v>
       </c>
       <c r="BN2" t="n">
-        <v>340.1177978515625</v>
+        <v>334.6038818359375</v>
       </c>
       <c r="BO2" t="n">
-        <v>333.5829162597656</v>
+        <v>334.7196044921875</v>
       </c>
       <c r="BP2" t="n">
-        <v>330.3852844238281</v>
+        <v>334.845947265625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>327.4403381347656</v>
+        <v>335.065185546875</v>
       </c>
       <c r="BR2" t="n">
-        <v>324.7551879882812</v>
+        <v>335.3142700195312</v>
       </c>
       <c r="BS2" t="n">
-        <v>322.537353515625</v>
+        <v>335.5311584472656</v>
       </c>
       <c r="BT2" t="n">
-        <v>320.5798034667969</v>
+        <v>335.662353515625</v>
       </c>
       <c r="BU2" t="n">
-        <v>319.2310485839844</v>
+        <v>335.7274780273438</v>
       </c>
       <c r="BV2" t="n">
-        <v>317.9966125488281</v>
+        <v>335.7565307617188</v>
       </c>
       <c r="BW2" t="n">
-        <v>317.2094421386719</v>
+        <v>335.7722473144531</v>
       </c>
       <c r="BX2" t="n">
-        <v>316.8075256347656</v>
+        <v>335.7899475097656</v>
       </c>
       <c r="BY2" t="n">
-        <v>316.8276977539062</v>
+        <v>335.8067626953125</v>
       </c>
       <c r="BZ2" t="n">
-        <v>317.1431579589844</v>
+        <v>335.8254699707031</v>
       </c>
       <c r="CA2" t="n">
-        <v>318.7702331542969</v>
+        <v>335.8431396484375</v>
       </c>
       <c r="CB2" t="n">
-        <v>321.15966796875</v>
+        <v>335.867919921875</v>
       </c>
       <c r="CC2" t="n">
-        <v>325.1782836914062</v>
+        <v>335.8903503417969</v>
       </c>
       <c r="CD2" t="n">
-        <v>328.53857421875</v>
+        <v>335.9158630371094</v>
       </c>
       <c r="CE2" t="n">
-        <v>334.9203796386719</v>
+        <v>335.9331665039062</v>
       </c>
       <c r="CF2" t="n">
-        <v>338.5121459960938</v>
+        <v>335.9427185058594</v>
       </c>
       <c r="CG2" t="n">
-        <v>341.6545104980469</v>
+        <v>335.9498596191406</v>
       </c>
       <c r="CH2" t="n">
-        <v>347.0861206054688</v>
+        <v>335.9532470703125</v>
       </c>
       <c r="CI2" t="n">
-        <v>352.0755615234375</v>
+        <v>335.9572143554688</v>
       </c>
       <c r="CJ2" t="n">
-        <v>356.0775451660156</v>
+        <v>335.9579162597656</v>
       </c>
       <c r="CK2" t="n">
-        <v>359.14794921875</v>
+        <v>335.9554443359375</v>
       </c>
       <c r="CL2" t="n">
-        <v>362.0339965820312</v>
+        <v>335.951904296875</v>
       </c>
       <c r="CM2" t="n">
-        <v>365.2023315429688</v>
+        <v>335.942626953125</v>
       </c>
       <c r="CN2" t="n">
-        <v>369.739013671875</v>
+        <v>335.9298095703125</v>
       </c>
       <c r="CO2" t="n">
-        <v>371.6557006835938</v>
+        <v>335.9166870117188</v>
       </c>
       <c r="CP2" t="n">
-        <v>373.5191040039062</v>
+        <v>335.9033203125</v>
       </c>
       <c r="CQ2" t="n">
-        <v>375.0954895019531</v>
+        <v>335.8992309570312</v>
       </c>
       <c r="CR2" t="n">
-        <v>376.2853698730469</v>
+        <v>335.8956909179688</v>
       </c>
       <c r="CS2" t="n">
-        <v>377.24462890625</v>
+        <v>335.8932800292969</v>
       </c>
       <c r="CT2" t="n">
-        <v>377.3857421875</v>
+        <v>335.8908081054688</v>
       </c>
       <c r="CU2" t="n">
-        <v>377.4005737304688</v>
+        <v>335.8923645019531</v>
       </c>
       <c r="CV2" t="n">
-        <v>376.4936828613281</v>
+        <v>335.8934936523438</v>
       </c>
       <c r="CW2" t="n">
-        <v>373.7525024414062</v>
+        <v>335.894775390625</v>
       </c>
       <c r="CX2" t="n">
-        <v>368.6282348632812</v>
+        <v>335.8929138183594</v>
       </c>
       <c r="CY2" t="n">
-        <v>366.1371459960938</v>
+        <v>335.888427734375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>361.4253540039062</v>
+        <v>335.8856811523438</v>
       </c>
       <c r="DA2" t="n">
-        <v>359.156005859375</v>
+        <v>335.8777465820312</v>
       </c>
       <c r="DB2" t="n">
-        <v>356.5670166015625</v>
+        <v>335.8684997558594</v>
       </c>
       <c r="DC2" t="n">
-        <v>352.5565795898438</v>
+        <v>335.8544311523438</v>
       </c>
       <c r="DD2" t="n">
-        <v>347.8992004394531</v>
+        <v>335.8228149414062</v>
       </c>
       <c r="DE2" t="n">
-        <v>340.4617919921875</v>
+        <v>335.7529296875</v>
       </c>
       <c r="DF2" t="n">
-        <v>335.0300598144531</v>
+        <v>335.6493530273438</v>
       </c>
       <c r="DG2" t="n">
-        <v>332.353515625</v>
+        <v>335.4801025390625</v>
       </c>
       <c r="DH2" t="n">
-        <v>327.0623779296875</v>
+        <v>335.3478393554688</v>
       </c>
       <c r="DI2" t="n">
-        <v>324.6606140136719</v>
+        <v>335.1794738769531</v>
       </c>
       <c r="DJ2" t="n">
-        <v>321.5804443359375</v>
+        <v>335.0086975097656</v>
       </c>
       <c r="DK2" t="n">
-        <v>319.1609497070312</v>
+        <v>334.8238525390625</v>
       </c>
       <c r="DL2" t="n">
-        <v>318.0455932617188</v>
+        <v>334.8003540039062</v>
       </c>
       <c r="DM2" t="n">
-        <v>316.96728515625</v>
+        <v>334.7629089355469</v>
       </c>
       <c r="DN2" t="n">
-        <v>315.7935791015625</v>
+        <v>334.6871948242188</v>
       </c>
       <c r="DO2" t="n">
-        <v>314.3916015625</v>
+        <v>334.6100158691406</v>
       </c>
       <c r="DP2" t="n">
-        <v>313.2064819335938</v>
+        <v>334.5706787109375</v>
       </c>
       <c r="DQ2" t="n">
-        <v>311.6602478027344</v>
+        <v>334.4899291992188</v>
       </c>
       <c r="DR2" t="n">
-        <v>311.1784057617188</v>
+        <v>334.4523315429688</v>
       </c>
       <c r="DS2" t="n">
-        <v>311.0458679199219</v>
+        <v>334.4173889160156</v>
       </c>
       <c r="DT2" t="n">
-        <v>310.9625854492188</v>
+        <v>334.3057250976562</v>
       </c>
       <c r="DU2" t="n">
-        <v>310.9653015136719</v>
+        <v>334.2554016113281</v>
       </c>
       <c r="DV2" t="n">
-        <v>311.1514587402344</v>
+        <v>334.1725158691406</v>
       </c>
       <c r="DW2" t="n">
-        <v>316.9873046875</v>
+        <v>334.1338500976562</v>
       </c>
       <c r="DX2" t="n">
-        <v>321.5048217773438</v>
+        <v>334.0972595214844</v>
       </c>
       <c r="DY2" t="n">
-        <v>325.3533630371094</v>
+        <v>334.0668334960938</v>
       </c>
       <c r="DZ2" t="n">
-        <v>332.2440185546875</v>
+        <v>334.4196166992188</v>
       </c>
       <c r="EA2" t="n">
-        <v>335.9737548828125</v>
+        <v>334.6859130859375</v>
       </c>
       <c r="EB2" t="n">
-        <v>347.2873229980469</v>
+        <v>335.0210571289062</v>
       </c>
       <c r="EC2" t="n">
-        <v>354.447265625</v>
+        <v>335.0652465820312</v>
       </c>
       <c r="ED2" t="n">
-        <v>360.8084106445312</v>
+        <v>334.9501953125</v>
       </c>
       <c r="EE2" t="n">
-        <v>371.67138671875</v>
+        <v>334.6011047363281</v>
       </c>
       <c r="EF2" t="n">
-        <v>386.6224365234375</v>
+        <v>333.2748107910156</v>
       </c>
       <c r="EG2" t="n">
-        <v>400.4830932617188</v>
+        <v>332.4459228515625</v>
       </c>
       <c r="EH2" t="n">
-        <v>406.9120788574219</v>
+        <v>331.377197265625</v>
       </c>
       <c r="EI2" t="n">
-        <v>417.7237548828125</v>
+        <v>331.0673522949219</v>
       </c>
       <c r="EJ2" t="n">
-        <v>422.42578125</v>
+        <v>330.9733276367188</v>
       </c>
       <c r="EK2" t="n">
-        <v>429.84130859375</v>
+        <v>330.7881469726562</v>
       </c>
       <c r="EL2" t="n">
-        <v>432.5851745605469</v>
+        <v>330.6924743652344</v>
       </c>
       <c r="EM2" t="n">
-        <v>437.1077880859375</v>
+        <v>330.66552734375</v>
       </c>
       <c r="EN2" t="n">
-        <v>439.5465698242188</v>
+        <v>330.6094665527344</v>
       </c>
       <c r="EO2" t="n">
-        <v>442.7995300292969</v>
+        <v>330.4620666503906</v>
       </c>
       <c r="EP2" t="n">
-        <v>444.8270263671875</v>
+        <v>330.395263671875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>448.4784545898438</v>
+        <v>330.2372741699219</v>
       </c>
       <c r="ER2" t="n">
-        <v>449.4205932617188</v>
+        <v>330.1226196289062</v>
       </c>
       <c r="ES2" t="n">
-        <v>449.7200317382812</v>
+        <v>330.1201782226562</v>
       </c>
       <c r="ET2" t="n">
-        <v>450.5857849121094</v>
+        <v>330.1323852539062</v>
       </c>
       <c r="EU2" t="n">
-        <v>451.7034912109375</v>
+        <v>330.1271362304688</v>
       </c>
       <c r="EV2" t="n">
-        <v>452.3304748535156</v>
+        <v>330.127197265625</v>
       </c>
       <c r="EW2" t="n">
-        <v>452.0530700683594</v>
+        <v>330.1260070800781</v>
       </c>
       <c r="EX2" t="n">
-        <v>452.560546875</v>
+        <v>330.3150634765625</v>
       </c>
       <c r="EY2" t="n">
-        <v>453.1702270507812</v>
+        <v>330.6497802734375</v>
       </c>
       <c r="EZ2" t="n">
-        <v>453.5731506347656</v>
+        <v>331.8758544921875</v>
       </c>
       <c r="FA2" t="n">
-        <v>453.7272338867188</v>
+        <v>332.708251953125</v>
       </c>
       <c r="FB2" t="n">
-        <v>454.0669250488281</v>
+        <v>333.4601135253906</v>
       </c>
       <c r="FC2" t="n">
-        <v>453.35107421875</v>
+        <v>335.0206909179688</v>
       </c>
       <c r="FD2" t="n">
-        <v>450.5787658691406</v>
+        <v>336.3444213867188</v>
       </c>
       <c r="FE2" t="n">
-        <v>449.9429931640625</v>
+        <v>337.4266052246094</v>
       </c>
       <c r="FF2" t="n">
-        <v>449.6187744140625</v>
+        <v>340.1197509765625</v>
       </c>
       <c r="FG2" t="n">
-        <v>448.3364562988281</v>
+        <v>341.1575317382812</v>
       </c>
       <c r="FH2" t="n">
-        <v>447.3304443359375</v>
+        <v>342.8646240234375</v>
       </c>
       <c r="FI2" t="n">
-        <v>445.3575134277344</v>
+        <v>343.5061950683594</v>
       </c>
       <c r="FJ2" t="n">
-        <v>444.5122680664062</v>
+        <v>345.2200012207031</v>
       </c>
       <c r="FK2" t="n">
-        <v>443.1533203125</v>
+        <v>346.9853210449219</v>
       </c>
       <c r="FL2" t="n">
-        <v>442.3275146484375</v>
+        <v>347.7173156738281</v>
       </c>
       <c r="FM2" t="n">
-        <v>440.8977661132812</v>
+        <v>348.9411010742188</v>
       </c>
       <c r="FN2" t="n">
-        <v>440.1318969726562</v>
+        <v>349.7631225585938</v>
       </c>
       <c r="FO2" t="n">
-        <v>439.25537109375</v>
+        <v>350.3720703125</v>
       </c>
       <c r="FP2" t="n">
-        <v>436.2592163085938</v>
+        <v>349.6963806152344</v>
       </c>
       <c r="FQ2" t="n">
-        <v>432.5974731445312</v>
+        <v>349.0030212402344</v>
       </c>
       <c r="FR2" t="n">
-        <v>429.2727966308594</v>
+        <v>347.4857177734375</v>
       </c>
       <c r="FS2" t="n">
-        <v>426.0977478027344</v>
+        <v>347.01513671875</v>
       </c>
       <c r="FT2" t="n">
-        <v>421.6406860351562</v>
+        <v>345.8861694335938</v>
       </c>
       <c r="FU2" t="n">
-        <v>419.0804443359375</v>
+        <v>343.4356384277344</v>
       </c>
       <c r="FV2" t="n">
-        <v>411.0975341796875</v>
+        <v>340.1790771484375</v>
       </c>
       <c r="FW2" t="n">
-        <v>405.4298706054688</v>
+        <v>333.5639953613281</v>
       </c>
       <c r="FX2" t="n">
-        <v>403.0591125488281</v>
+        <v>330.6286010742188</v>
       </c>
       <c r="FY2" t="n">
-        <v>401.1058044433594</v>
+        <v>326.9569396972656</v>
       </c>
       <c r="FZ2" t="n">
-        <v>396.534423828125</v>
+        <v>325.5522155761719</v>
       </c>
       <c r="GA2" t="n">
-        <v>394.6476745605469</v>
+        <v>321.4727172851562</v>
       </c>
       <c r="GB2" t="n">
-        <v>391.4073181152344</v>
+        <v>319.2210693359375</v>
       </c>
       <c r="GC2" t="n">
-        <v>390.4710388183594</v>
+        <v>315.1864013671875</v>
       </c>
       <c r="GD2" t="n">
-        <v>389.2977905273438</v>
+        <v>313.1964416503906</v>
       </c>
       <c r="GE2" t="n">
-        <v>389.1003723144531</v>
+        <v>310.3497619628906</v>
       </c>
       <c r="GF2" t="n">
-        <v>389.27197265625</v>
+        <v>308.6770324707031</v>
       </c>
       <c r="GG2" t="n">
-        <v>391.104248046875</v>
+        <v>307.136962890625</v>
       </c>
       <c r="GH2" t="n">
-        <v>392.3306274414062</v>
+        <v>305.2539672851562</v>
       </c>
       <c r="GI2" t="n">
-        <v>391.6387329101562</v>
+        <v>304.2637939453125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>389.4878540039062</v>
+        <v>303.8984680175781</v>
       </c>
       <c r="GK2" t="n">
-        <v>387.9620971679688</v>
+        <v>303.3291931152344</v>
       </c>
       <c r="GL2" t="n">
-        <v>384.0563354492188</v>
+        <v>302.7825012207031</v>
       </c>
       <c r="GM2" t="n">
-        <v>379.9605102539062</v>
+        <v>302.0674438476562</v>
       </c>
       <c r="GN2" t="n">
-        <v>377.3973388671875</v>
+        <v>301.7552490234375</v>
       </c>
       <c r="GO2" t="n">
-        <v>371.5257263183594</v>
+        <v>301.2469177246094</v>
       </c>
       <c r="GP2" t="n">
-        <v>364.7984008789062</v>
+        <v>300.7057189941406</v>
       </c>
       <c r="GQ2" t="n">
-        <v>354.7860412597656</v>
+        <v>300.3092346191406</v>
       </c>
       <c r="GR2" t="n">
-        <v>349.1170654296875</v>
+        <v>299.3216247558594</v>
       </c>
       <c r="GS2" t="n">
-        <v>344.3240966796875</v>
+        <v>298.3917541503906</v>
       </c>
       <c r="GT2" t="n">
-        <v>341.7548828125</v>
+        <v>297.1007385253906</v>
       </c>
       <c r="GU2" t="n">
-        <v>336.0250549316406</v>
+        <v>294.1912841796875</v>
       </c>
       <c r="GV2" t="n">
-        <v>332.402099609375</v>
+        <v>291.6527404785156</v>
       </c>
       <c r="GW2" t="n">
-        <v>331.0897216796875</v>
+        <v>287.2029113769531</v>
       </c>
       <c r="GX2" t="n">
-        <v>329.2648010253906</v>
+        <v>277.7604064941406</v>
       </c>
       <c r="GY2" t="n">
-        <v>327.5699462890625</v>
+        <v>266.8684692382812</v>
       </c>
       <c r="GZ2" t="n">
-        <v>326.7987060546875</v>
+        <v>255.0959167480469</v>
       </c>
       <c r="HA2" t="n">
-        <v>326.5685729980469</v>
+        <v>229.9940185546875</v>
       </c>
       <c r="HB2" t="n">
-        <v>326.5458984375</v>
+        <v>209.3742218017578</v>
       </c>
       <c r="HC2" t="n">
-        <v>326.53173828125</v>
+        <v>191.9753723144531</v>
       </c>
       <c r="HD2" t="n">
-        <v>326.5427856445312</v>
+        <v>175.2802124023438</v>
       </c>
       <c r="HE2" t="n">
-        <v>326.4251708984375</v>
+        <v>159.8286437988281</v>
       </c>
       <c r="HF2" t="n">
-        <v>327.1756591796875</v>
+        <v>147.7995758056641</v>
       </c>
       <c r="HG2" t="n">
-        <v>330.2235717773438</v>
+        <v>140.1846923828125</v>
       </c>
       <c r="HH2" t="n">
-        <v>332.0254516601562</v>
+        <v>135.5154418945312</v>
       </c>
       <c r="HI2" t="n">
-        <v>333.784423828125</v>
+        <v>129.9922485351562</v>
       </c>
       <c r="HJ2" t="n">
-        <v>338.2628173828125</v>
+        <v>121.3361740112305</v>
       </c>
       <c r="HK2" t="n">
-        <v>345.3303527832031</v>
+        <v>115.4615478515625</v>
       </c>
       <c r="HL2" t="n">
-        <v>353.3241577148438</v>
+        <v>115.434326171875</v>
       </c>
       <c r="HM2" t="n">
-        <v>360.8034973144531</v>
+        <v>117.0335998535156</v>
       </c>
       <c r="HN2" t="n">
-        <v>370.9359436035156</v>
+        <v>126.3577423095703</v>
       </c>
       <c r="HO2" t="n">
-        <v>386.5804443359375</v>
+        <v>146.6387481689453</v>
       </c>
       <c r="HP2" t="n">
-        <v>394.9766540527344</v>
+        <v>168.3171844482422</v>
       </c>
       <c r="HQ2" t="n">
-        <v>399.4134826660156</v>
+        <v>180.4323425292969</v>
       </c>
       <c r="HR2" t="n">
-        <v>411.3272399902344</v>
+        <v>185.1350250244141</v>
       </c>
       <c r="HS2" t="n">
-        <v>417.3543090820312</v>
+        <v>189.6585845947266</v>
       </c>
       <c r="HT2" t="n">
-        <v>422.2887878417969</v>
+        <v>197.1592102050781</v>
       </c>
       <c r="HU2" t="n">
-        <v>426.0322875976562</v>
+        <v>209.8006896972656</v>
       </c>
       <c r="HV2" t="n">
-        <v>429.5184936523438</v>
+        <v>225.6324005126953</v>
       </c>
       <c r="HW2" t="n">
-        <v>432.6941528320312</v>
+        <v>244.1725311279297</v>
       </c>
       <c r="HX2" t="n">
-        <v>435.3766174316406</v>
+        <v>266.3849182128906</v>
       </c>
       <c r="HY2" t="n">
-        <v>436.3062744140625</v>
+        <v>291.9565124511719</v>
       </c>
       <c r="HZ2" t="n">
-        <v>437.74267578125</v>
+        <v>308.0548400878906</v>
       </c>
       <c r="IA2" t="n">
-        <v>438.3975830078125</v>
+        <v>318.8715515136719</v>
       </c>
       <c r="IB2" t="n">
-        <v>438.3843994140625</v>
+        <v>331.6031494140625</v>
       </c>
       <c r="IC2" t="n">
-        <v>438.3023681640625</v>
+        <v>343.1164855957031</v>
       </c>
       <c r="ID2" t="n">
-        <v>436.4767761230469</v>
+        <v>349.7647094726562</v>
       </c>
       <c r="IE2" t="n">
-        <v>433.4787292480469</v>
+        <v>353.6909484863281</v>
       </c>
       <c r="IF2" t="n">
-        <v>430.532470703125</v>
+        <v>356.198974609375</v>
       </c>
       <c r="IG2" t="n">
-        <v>427.0447387695312</v>
+        <v>356.5875244140625</v>
       </c>
       <c r="IH2" t="n">
-        <v>419.550537109375</v>
+        <v>355.5148620605469</v>
       </c>
       <c r="II2" t="n">
-        <v>414.0735473632812</v>
+        <v>353.7159423828125</v>
       </c>
       <c r="IJ2" t="n">
-        <v>406.4993286132812</v>
+        <v>349.4918518066406</v>
       </c>
       <c r="IK2" t="n">
-        <v>393.7349853515625</v>
+        <v>346.0723266601562</v>
       </c>
       <c r="IL2" t="n">
-        <v>389.060791015625</v>
+        <v>340.4376525878906</v>
       </c>
       <c r="IM2" t="n">
-        <v>379.515380859375</v>
+        <v>333.8626708984375</v>
       </c>
       <c r="IN2" t="n">
-        <v>365.8902587890625</v>
+        <v>312.2123718261719</v>
       </c>
       <c r="IO2" t="n">
-        <v>358.8666381835938</v>
+        <v>309.1075439453125</v>
       </c>
       <c r="IP2" t="n">
-        <v>356.1023559570312</v>
+        <v>304.3962707519531</v>
       </c>
       <c r="IQ2" t="n">
-        <v>346.9344787597656</v>
+        <v>285.0675048828125</v>
       </c>
       <c r="IR2" t="n">
-        <v>340.7609558105469</v>
+        <v>278.8393859863281</v>
       </c>
       <c r="IS2" t="n">
-        <v>338.8461608886719</v>
+        <v>270.8316955566406</v>
       </c>
       <c r="IT2" t="n">
-        <v>333.7596435546875</v>
+        <v>264.19091796875</v>
       </c>
       <c r="IU2" t="n">
-        <v>330.5534057617188</v>
+        <v>258.2522888183594</v>
       </c>
       <c r="IV2" t="n">
-        <v>328.9315490722656</v>
+        <v>253.4893951416016</v>
       </c>
       <c r="IW2" t="n">
-        <v>328.2743530273438</v>
+        <v>249.9090728759766</v>
       </c>
       <c r="IX2" t="n">
-        <v>327.079345703125</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>327.0489196777344</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>327.161376953125</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>329.23193359375</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>332.4948425292969</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>337.2521667480469</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>340.6693115234375</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>347.1672973632812</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>353.1645202636719</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>362.8938293457031</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>370.4812316894531</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>375.3042297363281</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>380.3498840332031</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>386.2311401367188</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>392.5030517578125</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>395.8668212890625</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>400.10595703125</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>404.2481689453125</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>406.4255981445312</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>408.2342529296875</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>409.9256896972656</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>411.8835144042969</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>413.5163879394531</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>414.6428833007812</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>415.3070678710938</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>415.8170776367188</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>416.2517700195312</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>416.4400634765625</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>416.5299072265625</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>416.6022338867188</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>416.6334228515625</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>416.6134033203125</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>415.9508666992188</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>415.6190795898438</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>415.4190063476562</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>414.9097290039062</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>414.4306945800781</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>413.9163818359375</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>413.2657165527344</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>413.0055236816406</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>412.825927734375</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>412.8423461914062</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>412.903564453125</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>413.2674865722656</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>413.8881225585938</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>415.1098022460938</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>415.9505615234375</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>416.6504211425781</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>417.110107421875</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>417.4716796875</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>417.7646484375</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>417.9097290039062</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>418.177734375</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>418.5538330078125</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>419.1828002929688</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>420.8246459960938</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>422.1199951171875</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>422.9732971191406</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>424.0446166992188</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>424.2552185058594</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>425.105224609375</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>427.6844482421875</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>429.5904235839844</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>433.87158203125</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>438.4528198242188</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>442.8807373046875</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>445.7367553710938</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>448.2607421875</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>450.9788208007812</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>452.9957885742188</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>459.2282409667969</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>467.2449035644531</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>472.581787109375</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>476.7699584960938</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>483.8485717773438</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>484.1199951171875</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>481.1724548339844</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>476.8105773925781</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>471.3290100097656</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>462.8855895996094</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>452.7185668945312</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>431.3528747558594</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>410.8304443359375</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>392.8743896484375</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>367.5802917480469</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>344.3477783203125</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>332.5926208496094</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>323.6205749511719</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>323.1914672851562</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>326.3838195800781</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>345.3477783203125</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>360.6578979492188</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>367.3956909179688</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>380.1538696289062</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>388.1417236328125</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>393.3656616210938</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>397.15283203125</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>397.8435668945312</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>391.4603271484375</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>388.9093627929688</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>388.7484741210938</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>395.9700012207031</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>386.218017578125</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>366.2200927734375</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>357.0588989257812</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>355.3262939453125</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>353.1968688964844</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>351.863037109375</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>351.1194152832031</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>349.6272583007812</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>350.24267578125</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>355.0728149414062</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>361.0700073242188</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>366.2433166503906</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>366.8663330078125</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>366.3772277832031</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>365.9791259765625</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>365.9476318359375</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>365.9906616210938</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>366.7054443359375</v>
+        <v>248.5320739746094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>174.6383666992188</v>
+        <v>180.7820739746094</v>
       </c>
       <c r="B3" t="n">
-        <v>173.3324584960938</v>
+        <v>181.6981964111328</v>
       </c>
       <c r="C3" t="n">
-        <v>172.8886108398438</v>
+        <v>182.5039978027344</v>
       </c>
       <c r="D3" t="n">
-        <v>172.9898376464844</v>
+        <v>183.3394470214844</v>
       </c>
       <c r="E3" t="n">
-        <v>174.7385559082031</v>
+        <v>184.9175109863281</v>
       </c>
       <c r="F3" t="n">
-        <v>176.7570648193359</v>
+        <v>187.1728515625</v>
       </c>
       <c r="G3" t="n">
-        <v>178.8758697509766</v>
+        <v>189.6016693115234</v>
       </c>
       <c r="H3" t="n">
-        <v>181.1963653564453</v>
+        <v>192.4744110107422</v>
       </c>
       <c r="I3" t="n">
-        <v>183.3803558349609</v>
+        <v>196.0988311767578</v>
       </c>
       <c r="J3" t="n">
-        <v>185.1598663330078</v>
+        <v>200.3320159912109</v>
       </c>
       <c r="K3" t="n">
-        <v>186.0349273681641</v>
+        <v>205.0258331298828</v>
       </c>
       <c r="L3" t="n">
-        <v>186.4502868652344</v>
+        <v>209.8172760009766</v>
       </c>
       <c r="M3" t="n">
-        <v>184.9820556640625</v>
+        <v>213.6299896240234</v>
       </c>
       <c r="N3" t="n">
-        <v>182.2508239746094</v>
+        <v>216.6609039306641</v>
       </c>
       <c r="O3" t="n">
-        <v>187.8947601318359</v>
+        <v>235.2663726806641</v>
       </c>
       <c r="P3" t="n">
-        <v>187.0945129394531</v>
+        <v>235.2461395263672</v>
       </c>
       <c r="Q3" t="n">
-        <v>187.0869140625</v>
+        <v>235.974365234375</v>
       </c>
       <c r="R3" t="n">
-        <v>187.4747161865234</v>
+        <v>238.8292846679688</v>
       </c>
       <c r="S3" t="n">
-        <v>188.0197296142578</v>
+        <v>240.77587890625</v>
       </c>
       <c r="T3" t="n">
-        <v>189.2430725097656</v>
+        <v>242.2002410888672</v>
       </c>
       <c r="U3" t="n">
-        <v>190.8237609863281</v>
+        <v>243.1464691162109</v>
       </c>
       <c r="V3" t="n">
-        <v>194.9178314208984</v>
+        <v>244.5324401855469</v>
       </c>
       <c r="W3" t="n">
-        <v>197.9175567626953</v>
+        <v>247.3066253662109</v>
       </c>
       <c r="X3" t="n">
-        <v>200.4685974121094</v>
+        <v>250.1419525146484</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.4216766357422</v>
+        <v>252.1878662109375</v>
       </c>
       <c r="Z3" t="n">
-        <v>206.4058227539062</v>
+        <v>253.456298828125</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.9609680175781</v>
+        <v>254.4292297363281</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.0904083251953</v>
+        <v>255.0293884277344</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.9621429443359</v>
+        <v>255.8819427490234</v>
       </c>
       <c r="AD3" t="n">
-        <v>214.4900512695312</v>
+        <v>257.2450256347656</v>
       </c>
       <c r="AE3" t="n">
-        <v>215.3325958251953</v>
+        <v>258.4699401855469</v>
       </c>
       <c r="AF3" t="n">
-        <v>215.6770629882812</v>
+        <v>259.2217407226562</v>
       </c>
       <c r="AG3" t="n">
-        <v>215.8478851318359</v>
+        <v>259.676025390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>215.0900115966797</v>
+        <v>259.673828125</v>
       </c>
       <c r="AI3" t="n">
-        <v>214.1004791259766</v>
+        <v>259.6013488769531</v>
       </c>
       <c r="AJ3" t="n">
-        <v>212.4548492431641</v>
+        <v>259.5840148925781</v>
       </c>
       <c r="AK3" t="n">
-        <v>211.6671752929688</v>
+        <v>259.7061157226562</v>
       </c>
       <c r="AL3" t="n">
-        <v>211.530029296875</v>
+        <v>259.952392578125</v>
       </c>
       <c r="AM3" t="n">
-        <v>211.5278778076172</v>
+        <v>260.5316467285156</v>
       </c>
       <c r="AN3" t="n">
-        <v>211.5341186523438</v>
+        <v>261.5104064941406</v>
       </c>
       <c r="AO3" t="n">
-        <v>211.5208129882812</v>
+        <v>262.3746948242188</v>
       </c>
       <c r="AP3" t="n">
-        <v>211.4765472412109</v>
+        <v>263.10693359375</v>
       </c>
       <c r="AQ3" t="n">
-        <v>211.4175262451172</v>
+        <v>263.458251953125</v>
       </c>
       <c r="AR3" t="n">
-        <v>211.3819732666016</v>
+        <v>263.7312927246094</v>
       </c>
       <c r="AS3" t="n">
-        <v>211.3356170654297</v>
+        <v>263.9112854003906</v>
       </c>
       <c r="AT3" t="n">
-        <v>211.2540740966797</v>
+        <v>264.1025085449219</v>
       </c>
       <c r="AU3" t="n">
-        <v>211.1815948486328</v>
+        <v>264.2781066894531</v>
       </c>
       <c r="AV3" t="n">
-        <v>211.0714721679688</v>
+        <v>264.5170593261719</v>
       </c>
       <c r="AW3" t="n">
-        <v>210.9677581787109</v>
+        <v>264.7085571289062</v>
       </c>
       <c r="AX3" t="n">
-        <v>210.8431243896484</v>
+        <v>265.0066528320312</v>
       </c>
       <c r="AY3" t="n">
-        <v>210.6797943115234</v>
+        <v>265.4122619628906</v>
       </c>
       <c r="AZ3" t="n">
-        <v>210.4263305664062</v>
+        <v>266.0247192382812</v>
       </c>
       <c r="BA3" t="n">
-        <v>210.1222076416016</v>
+        <v>266.2838439941406</v>
       </c>
       <c r="BB3" t="n">
-        <v>209.8912811279297</v>
+        <v>266.4886169433594</v>
       </c>
       <c r="BC3" t="n">
-        <v>209.6638031005859</v>
+        <v>266.5413513183594</v>
       </c>
       <c r="BD3" t="n">
-        <v>209.1721954345703</v>
+        <v>266.4800720214844</v>
       </c>
       <c r="BE3" t="n">
-        <v>208.6786956787109</v>
+        <v>266.4176635742188</v>
       </c>
       <c r="BF3" t="n">
-        <v>208.1790466308594</v>
+        <v>266.3238220214844</v>
       </c>
       <c r="BG3" t="n">
-        <v>207.0907745361328</v>
+        <v>266.2386474609375</v>
       </c>
       <c r="BH3" t="n">
-        <v>205.5906372070312</v>
+        <v>266.2001342773438</v>
       </c>
       <c r="BI3" t="n">
-        <v>204.0107116699219</v>
+        <v>266.16943359375</v>
       </c>
       <c r="BJ3" t="n">
-        <v>202.4695587158203</v>
+        <v>266.1246032714844</v>
       </c>
       <c r="BK3" t="n">
-        <v>201.4649200439453</v>
+        <v>266.0912475585938</v>
       </c>
       <c r="BL3" t="n">
-        <v>200.8173828125</v>
+        <v>266.1273193359375</v>
       </c>
       <c r="BM3" t="n">
-        <v>200.384521484375</v>
+        <v>266.1496276855469</v>
       </c>
       <c r="BN3" t="n">
-        <v>199.9223327636719</v>
+        <v>266.1549072265625</v>
       </c>
       <c r="BO3" t="n">
-        <v>198.5039520263672</v>
+        <v>266.150390625</v>
       </c>
       <c r="BP3" t="n">
-        <v>197.6350250244141</v>
+        <v>266.1435546875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>196.9514770507812</v>
+        <v>266.131103515625</v>
       </c>
       <c r="BR3" t="n">
-        <v>196.3511199951172</v>
+        <v>266.1138000488281</v>
       </c>
       <c r="BS3" t="n">
-        <v>195.7361450195312</v>
+        <v>266.0954895019531</v>
       </c>
       <c r="BT3" t="n">
-        <v>195.2888031005859</v>
+        <v>266.0824584960938</v>
       </c>
       <c r="BU3" t="n">
-        <v>194.9883575439453</v>
+        <v>266.0750427246094</v>
       </c>
       <c r="BV3" t="n">
-        <v>194.6939086914062</v>
+        <v>266.07275390625</v>
       </c>
       <c r="BW3" t="n">
-        <v>194.3788452148438</v>
+        <v>266.0733642578125</v>
       </c>
       <c r="BX3" t="n">
-        <v>194.0350952148438</v>
+        <v>266.0876770019531</v>
       </c>
       <c r="BY3" t="n">
-        <v>192.7704010009766</v>
+        <v>266.1001586914062</v>
       </c>
       <c r="BZ3" t="n">
-        <v>192.1221771240234</v>
+        <v>266.1112060546875</v>
       </c>
       <c r="CA3" t="n">
-        <v>191.7176361083984</v>
+        <v>266.1154479980469</v>
       </c>
       <c r="CB3" t="n">
-        <v>191.5147094726562</v>
+        <v>266.1445922851562</v>
       </c>
       <c r="CC3" t="n">
-        <v>191.4591827392578</v>
+        <v>266.1751708984375</v>
       </c>
       <c r="CD3" t="n">
-        <v>191.3588409423828</v>
+        <v>266.2157287597656</v>
       </c>
       <c r="CE3" t="n">
-        <v>191.177001953125</v>
+        <v>266.2457275390625</v>
       </c>
       <c r="CF3" t="n">
-        <v>190.9847259521484</v>
+        <v>266.2505798339844</v>
       </c>
       <c r="CG3" t="n">
-        <v>190.9072875976562</v>
+        <v>266.253662109375</v>
       </c>
       <c r="CH3" t="n">
-        <v>190.8014831542969</v>
+        <v>266.2486877441406</v>
       </c>
       <c r="CI3" t="n">
-        <v>190.6870727539062</v>
+        <v>266.2334899902344</v>
       </c>
       <c r="CJ3" t="n">
-        <v>190.5769348144531</v>
+        <v>266.2255859375</v>
       </c>
       <c r="CK3" t="n">
-        <v>190.4675140380859</v>
+        <v>266.2033081054688</v>
       </c>
       <c r="CL3" t="n">
-        <v>190.2799835205078</v>
+        <v>266.1759033203125</v>
       </c>
       <c r="CM3" t="n">
-        <v>190.1100006103516</v>
+        <v>266.1635131835938</v>
       </c>
       <c r="CN3" t="n">
-        <v>189.6569061279297</v>
+        <v>266.1573181152344</v>
       </c>
       <c r="CO3" t="n">
-        <v>189.4545745849609</v>
+        <v>266.1526794433594</v>
       </c>
       <c r="CP3" t="n">
-        <v>189.205322265625</v>
+        <v>266.1584167480469</v>
       </c>
       <c r="CQ3" t="n">
-        <v>188.9776763916016</v>
+        <v>266.1651306152344</v>
       </c>
       <c r="CR3" t="n">
-        <v>188.7773132324219</v>
+        <v>266.1717529296875</v>
       </c>
       <c r="CS3" t="n">
-        <v>188.5743103027344</v>
+        <v>266.1840515136719</v>
       </c>
       <c r="CT3" t="n">
-        <v>188.5539855957031</v>
+        <v>266.197509765625</v>
       </c>
       <c r="CU3" t="n">
-        <v>188.5507354736328</v>
+        <v>266.2109069824219</v>
       </c>
       <c r="CV3" t="n">
-        <v>188.5466613769531</v>
+        <v>266.2229614257812</v>
       </c>
       <c r="CW3" t="n">
-        <v>188.5768432617188</v>
+        <v>266.2355651855469</v>
       </c>
       <c r="CX3" t="n">
-        <v>188.6705932617188</v>
+        <v>266.2400207519531</v>
       </c>
       <c r="CY3" t="n">
-        <v>188.7640380859375</v>
+        <v>266.2481384277344</v>
       </c>
       <c r="CZ3" t="n">
-        <v>189.020263671875</v>
+        <v>266.2523498535156</v>
       </c>
       <c r="DA3" t="n">
-        <v>189.1047668457031</v>
+        <v>266.256591796875</v>
       </c>
       <c r="DB3" t="n">
-        <v>189.1721954345703</v>
+        <v>266.2626342773438</v>
       </c>
       <c r="DC3" t="n">
-        <v>189.0000762939453</v>
+        <v>266.2687377929688</v>
       </c>
       <c r="DD3" t="n">
-        <v>188.8825988769531</v>
+        <v>266.2764282226562</v>
       </c>
       <c r="DE3" t="n">
-        <v>188.6462707519531</v>
+        <v>266.3125305175781</v>
       </c>
       <c r="DF3" t="n">
-        <v>188.6630401611328</v>
+        <v>266.3516235351562</v>
       </c>
       <c r="DG3" t="n">
-        <v>188.7293395996094</v>
+        <v>266.4320373535156</v>
       </c>
       <c r="DH3" t="n">
-        <v>188.9337310791016</v>
+        <v>266.5032348632812</v>
       </c>
       <c r="DI3" t="n">
-        <v>189.0563659667969</v>
+        <v>266.5745239257812</v>
       </c>
       <c r="DJ3" t="n">
-        <v>189.3181304931641</v>
+        <v>266.6217651367188</v>
       </c>
       <c r="DK3" t="n">
-        <v>189.4331359863281</v>
+        <v>266.6762390136719</v>
       </c>
       <c r="DL3" t="n">
-        <v>189.4932250976562</v>
+        <v>266.6806945800781</v>
       </c>
       <c r="DM3" t="n">
-        <v>189.5472259521484</v>
+        <v>266.6814880371094</v>
       </c>
       <c r="DN3" t="n">
-        <v>189.5844421386719</v>
+        <v>266.6806335449219</v>
       </c>
       <c r="DO3" t="n">
-        <v>189.6282348632812</v>
+        <v>266.7056274414062</v>
       </c>
       <c r="DP3" t="n">
-        <v>189.6881408691406</v>
+        <v>266.7335815429688</v>
       </c>
       <c r="DQ3" t="n">
-        <v>189.8174438476562</v>
+        <v>266.7760925292969</v>
       </c>
       <c r="DR3" t="n">
-        <v>189.8635864257812</v>
+        <v>266.7855834960938</v>
       </c>
       <c r="DS3" t="n">
-        <v>189.8964233398438</v>
+        <v>266.7920837402344</v>
       </c>
       <c r="DT3" t="n">
-        <v>190.0118713378906</v>
+        <v>266.7806091308594</v>
       </c>
       <c r="DU3" t="n">
-        <v>190.6420593261719</v>
+        <v>266.7689208984375</v>
       </c>
       <c r="DV3" t="n">
-        <v>191.62646484375</v>
+        <v>266.6683044433594</v>
       </c>
       <c r="DW3" t="n">
-        <v>194.6535491943359</v>
+        <v>266.6123352050781</v>
       </c>
       <c r="DX3" t="n">
-        <v>195.7566070556641</v>
+        <v>266.5570678710938</v>
       </c>
       <c r="DY3" t="n">
-        <v>196.6130981445312</v>
+        <v>266.5013427734375</v>
       </c>
       <c r="DZ3" t="n">
-        <v>198.9478302001953</v>
+        <v>266.4898071289062</v>
       </c>
       <c r="EA3" t="n">
-        <v>200.2514038085938</v>
+        <v>266.4836730957031</v>
       </c>
       <c r="EB3" t="n">
-        <v>203.5177001953125</v>
+        <v>266.4869384765625</v>
       </c>
       <c r="EC3" t="n">
-        <v>205.5445861816406</v>
+        <v>266.4961547851562</v>
       </c>
       <c r="ED3" t="n">
-        <v>207.708740234375</v>
+        <v>266.5282897949219</v>
       </c>
       <c r="EE3" t="n">
-        <v>211.1292266845703</v>
+        <v>266.5535278320312</v>
       </c>
       <c r="EF3" t="n">
-        <v>216.6702270507812</v>
+        <v>266.5704345703125</v>
       </c>
       <c r="EG3" t="n">
-        <v>220.2884368896484</v>
+        <v>266.5619812011719</v>
       </c>
       <c r="EH3" t="n">
-        <v>221.2241363525391</v>
+        <v>266.5340576171875</v>
       </c>
       <c r="EI3" t="n">
-        <v>222.4343719482422</v>
+        <v>266.5255737304688</v>
       </c>
       <c r="EJ3" t="n">
-        <v>222.5748138427734</v>
+        <v>266.5182189941406</v>
       </c>
       <c r="EK3" t="n">
-        <v>221.7577209472656</v>
+        <v>266.694091796875</v>
       </c>
       <c r="EL3" t="n">
-        <v>220.8101196289062</v>
+        <v>266.7975769042969</v>
       </c>
       <c r="EM3" t="n">
-        <v>219.6426696777344</v>
+        <v>266.8789978027344</v>
       </c>
       <c r="EN3" t="n">
-        <v>219.4769592285156</v>
+        <v>266.9248657226562</v>
       </c>
       <c r="EO3" t="n">
-        <v>219.5462341308594</v>
+        <v>266.9132080078125</v>
       </c>
       <c r="EP3" t="n">
-        <v>220.5452117919922</v>
+        <v>266.8693237304688</v>
       </c>
       <c r="EQ3" t="n">
-        <v>225.6973419189453</v>
+        <v>266.7393798828125</v>
       </c>
       <c r="ER3" t="n">
-        <v>227.3246459960938</v>
+        <v>266.5426635742188</v>
       </c>
       <c r="ES3" t="n">
-        <v>230.8141937255859</v>
+        <v>266.4532470703125</v>
       </c>
       <c r="ET3" t="n">
-        <v>234.236328125</v>
+        <v>266.380126953125</v>
       </c>
       <c r="EU3" t="n">
-        <v>235.7706909179688</v>
+        <v>266.2200622558594</v>
       </c>
       <c r="EV3" t="n">
-        <v>236.6854400634766</v>
+        <v>265.8251647949219</v>
       </c>
       <c r="EW3" t="n">
-        <v>237.7160491943359</v>
+        <v>265.5674743652344</v>
       </c>
       <c r="EX3" t="n">
-        <v>239.4533233642578</v>
+        <v>265.1128540039062</v>
       </c>
       <c r="EY3" t="n">
-        <v>240.2567138671875</v>
+        <v>264.8455200195312</v>
       </c>
       <c r="EZ3" t="n">
-        <v>240.6732788085938</v>
+        <v>263.6902160644531</v>
       </c>
       <c r="FA3" t="n">
-        <v>241.9148864746094</v>
+        <v>263.020751953125</v>
       </c>
       <c r="FB3" t="n">
-        <v>243.2328948974609</v>
+        <v>262.2381286621094</v>
       </c>
       <c r="FC3" t="n">
-        <v>246.0326385498047</v>
+        <v>261.5719909667969</v>
       </c>
       <c r="FD3" t="n">
-        <v>247.9123077392578</v>
+        <v>260.473388671875</v>
       </c>
       <c r="FE3" t="n">
-        <v>248.8023071289062</v>
+        <v>259.7756042480469</v>
       </c>
       <c r="FF3" t="n">
-        <v>249.9306945800781</v>
+        <v>257.5571594238281</v>
       </c>
       <c r="FG3" t="n">
-        <v>252.5301361083984</v>
+        <v>255.6712799072266</v>
       </c>
       <c r="FH3" t="n">
-        <v>253.3454742431641</v>
+        <v>253.2771148681641</v>
       </c>
       <c r="FI3" t="n">
-        <v>255.8233947753906</v>
+        <v>252.6886596679688</v>
       </c>
       <c r="FJ3" t="n">
-        <v>258.3262329101562</v>
+        <v>251.9905700683594</v>
       </c>
       <c r="FK3" t="n">
-        <v>261.8712768554688</v>
+        <v>250.857177734375</v>
       </c>
       <c r="FL3" t="n">
-        <v>262.6520690917969</v>
+        <v>250.5033264160156</v>
       </c>
       <c r="FM3" t="n">
-        <v>262.9207458496094</v>
+        <v>248.7752685546875</v>
       </c>
       <c r="FN3" t="n">
-        <v>262.6528930664062</v>
+        <v>246.7633666992188</v>
       </c>
       <c r="FO3" t="n">
-        <v>262.3881530761719</v>
+        <v>243.5782165527344</v>
       </c>
       <c r="FP3" t="n">
-        <v>262.0696716308594</v>
+        <v>242.3475799560547</v>
       </c>
       <c r="FQ3" t="n">
-        <v>261.8926086425781</v>
+        <v>241.9869232177734</v>
       </c>
       <c r="FR3" t="n">
-        <v>261.7397766113281</v>
+        <v>241.2428588867188</v>
       </c>
       <c r="FS3" t="n">
-        <v>261.5370483398438</v>
+        <v>240.7371978759766</v>
       </c>
       <c r="FT3" t="n">
-        <v>261.3732299804688</v>
+        <v>239.0839996337891</v>
       </c>
       <c r="FU3" t="n">
-        <v>261.361083984375</v>
+        <v>237.9329071044922</v>
       </c>
       <c r="FV3" t="n">
-        <v>264.431396484375</v>
+        <v>236.4488372802734</v>
       </c>
       <c r="FW3" t="n">
-        <v>267.3407592773438</v>
+        <v>229.9325408935547</v>
       </c>
       <c r="FX3" t="n">
-        <v>268.0977783203125</v>
+        <v>226.9023284912109</v>
       </c>
       <c r="FY3" t="n">
-        <v>268.6004638671875</v>
+        <v>223.2715454101562</v>
       </c>
       <c r="FZ3" t="n">
-        <v>268.8481750488281</v>
+        <v>221.3974304199219</v>
       </c>
       <c r="GA3" t="n">
-        <v>268.9281005859375</v>
+        <v>218.6278686523438</v>
       </c>
       <c r="GB3" t="n">
-        <v>268.4264831542969</v>
+        <v>217.9247283935547</v>
       </c>
       <c r="GC3" t="n">
-        <v>267.71142578125</v>
+        <v>216.8518371582031</v>
       </c>
       <c r="GD3" t="n">
-        <v>266.4655151367188</v>
+        <v>215.6863708496094</v>
       </c>
       <c r="GE3" t="n">
-        <v>266.3053894042969</v>
+        <v>212.3136138916016</v>
       </c>
       <c r="GF3" t="n">
-        <v>266.0280151367188</v>
+        <v>209.3063812255859</v>
       </c>
       <c r="GG3" t="n">
-        <v>265.9637451171875</v>
+        <v>208.1161804199219</v>
       </c>
       <c r="GH3" t="n">
-        <v>265.8852233886719</v>
+        <v>206.6214599609375</v>
       </c>
       <c r="GI3" t="n">
-        <v>265.7236328125</v>
+        <v>205.0252990722656</v>
       </c>
       <c r="GJ3" t="n">
-        <v>265.0803833007812</v>
+        <v>204.1192932128906</v>
       </c>
       <c r="GK3" t="n">
-        <v>264.64697265625</v>
+        <v>202.3390350341797</v>
       </c>
       <c r="GL3" t="n">
-        <v>263.4483642578125</v>
+        <v>200.4816131591797</v>
       </c>
       <c r="GM3" t="n">
-        <v>262.8303833007812</v>
+        <v>197.2857971191406</v>
       </c>
       <c r="GN3" t="n">
-        <v>262.737060546875</v>
+        <v>194.2045593261719</v>
       </c>
       <c r="GO3" t="n">
-        <v>262.7307434082031</v>
+        <v>184.9906005859375</v>
       </c>
       <c r="GP3" t="n">
-        <v>262.7035522460938</v>
+        <v>177.3707427978516</v>
       </c>
       <c r="GQ3" t="n">
-        <v>263.2475280761719</v>
+        <v>173.7779083251953</v>
       </c>
       <c r="GR3" t="n">
-        <v>263.6694946289062</v>
+        <v>167.9076080322266</v>
       </c>
       <c r="GS3" t="n">
-        <v>263.2582397460938</v>
+        <v>166.0301513671875</v>
       </c>
       <c r="GT3" t="n">
-        <v>262.6705627441406</v>
+        <v>164.2983245849609</v>
       </c>
       <c r="GU3" t="n">
-        <v>261.4653015136719</v>
+        <v>161.3397979736328</v>
       </c>
       <c r="GV3" t="n">
-        <v>260.5533752441406</v>
+        <v>158.3215637207031</v>
       </c>
       <c r="GW3" t="n">
-        <v>260.4007568359375</v>
+        <v>154.7063598632812</v>
       </c>
       <c r="GX3" t="n">
-        <v>260.3349304199219</v>
+        <v>151.4820556640625</v>
       </c>
       <c r="GY3" t="n">
-        <v>260.2352294921875</v>
+        <v>148.7518310546875</v>
       </c>
       <c r="GZ3" t="n">
-        <v>260.1276550292969</v>
+        <v>147.4694366455078</v>
       </c>
       <c r="HA3" t="n">
-        <v>260.0003051757812</v>
+        <v>154.9338989257812</v>
       </c>
       <c r="HB3" t="n">
-        <v>259.6669311523438</v>
+        <v>160.5035858154297</v>
       </c>
       <c r="HC3" t="n">
-        <v>259.2422790527344</v>
+        <v>168.542724609375</v>
       </c>
       <c r="HD3" t="n">
-        <v>259.02099609375</v>
+        <v>177.1996765136719</v>
       </c>
       <c r="HE3" t="n">
-        <v>258.5335998535156</v>
+        <v>182.2528839111328</v>
       </c>
       <c r="HF3" t="n">
-        <v>258.458740234375</v>
+        <v>184.2682952880859</v>
       </c>
       <c r="HG3" t="n">
-        <v>258.4879150390625</v>
+        <v>184.8867797851562</v>
       </c>
       <c r="HH3" t="n">
-        <v>258.5178527832031</v>
+        <v>185.266845703125</v>
       </c>
       <c r="HI3" t="n">
-        <v>258.5364074707031</v>
+        <v>189.48779296875</v>
       </c>
       <c r="HJ3" t="n">
-        <v>258.5413208007812</v>
+        <v>196.5657806396484</v>
       </c>
       <c r="HK3" t="n">
-        <v>259.000732421875</v>
+        <v>201.521484375</v>
       </c>
       <c r="HL3" t="n">
-        <v>260.4404907226562</v>
+        <v>202.3124694824219</v>
       </c>
       <c r="HM3" t="n">
-        <v>262.0818481445312</v>
+        <v>202.0262603759766</v>
       </c>
       <c r="HN3" t="n">
-        <v>263.5417785644531</v>
+        <v>198.0456390380859</v>
       </c>
       <c r="HO3" t="n">
-        <v>263.077392578125</v>
+        <v>195.2527313232422</v>
       </c>
       <c r="HP3" t="n">
-        <v>261.6339416503906</v>
+        <v>201.5198974609375</v>
       </c>
       <c r="HQ3" t="n">
-        <v>261.2096252441406</v>
+        <v>209.568603515625</v>
       </c>
       <c r="HR3" t="n">
-        <v>259.8328552246094</v>
+        <v>218.3165893554688</v>
       </c>
       <c r="HS3" t="n">
-        <v>259.4921264648438</v>
+        <v>228.3833312988281</v>
       </c>
       <c r="HT3" t="n">
-        <v>259.3558654785156</v>
+        <v>240.9897155761719</v>
       </c>
       <c r="HU3" t="n">
-        <v>259.3204040527344</v>
+        <v>257.9291381835938</v>
       </c>
       <c r="HV3" t="n">
-        <v>259.2637329101562</v>
+        <v>278.4815063476562</v>
       </c>
       <c r="HW3" t="n">
-        <v>259.2038269042969</v>
+        <v>298.7995910644531</v>
       </c>
       <c r="HX3" t="n">
-        <v>259.1347351074219</v>
+        <v>310.4026489257812</v>
       </c>
       <c r="HY3" t="n">
-        <v>259.1023559570312</v>
+        <v>314.12890625</v>
       </c>
       <c r="HZ3" t="n">
-        <v>259.0492858886719</v>
+        <v>314.9914855957031</v>
       </c>
       <c r="IA3" t="n">
-        <v>259.1033630371094</v>
+        <v>313.4687194824219</v>
       </c>
       <c r="IB3" t="n">
-        <v>259.1602783203125</v>
+        <v>312.342041015625</v>
       </c>
       <c r="IC3" t="n">
-        <v>259.4312744140625</v>
+        <v>313.272705078125</v>
       </c>
       <c r="ID3" t="n">
-        <v>260.11376953125</v>
+        <v>316.2030639648438</v>
       </c>
       <c r="IE3" t="n">
-        <v>261.7161560058594</v>
+        <v>318.0162658691406</v>
       </c>
       <c r="IF3" t="n">
-        <v>262.8726501464844</v>
+        <v>319.5059204101562</v>
       </c>
       <c r="IG3" t="n">
-        <v>262.991943359375</v>
+        <v>320.1455078125</v>
       </c>
       <c r="IH3" t="n">
-        <v>262.9757690429688</v>
+        <v>320.0445861816406</v>
       </c>
       <c r="II3" t="n">
-        <v>263.0660705566406</v>
+        <v>320.7876281738281</v>
       </c>
       <c r="IJ3" t="n">
-        <v>263.4017944335938</v>
+        <v>321.2216796875</v>
       </c>
       <c r="IK3" t="n">
-        <v>263.4974365234375</v>
+        <v>320.7400207519531</v>
       </c>
       <c r="IL3" t="n">
-        <v>263.7626953125</v>
+        <v>320.0816650390625</v>
       </c>
       <c r="IM3" t="n">
-        <v>264.1287536621094</v>
+        <v>321.6540832519531</v>
       </c>
       <c r="IN3" t="n">
-        <v>264.4212341308594</v>
+        <v>316.9856262207031</v>
       </c>
       <c r="IO3" t="n">
-        <v>264.47802734375</v>
+        <v>316.5000305175781</v>
       </c>
       <c r="IP3" t="n">
-        <v>264.4938049316406</v>
+        <v>318.2984008789062</v>
       </c>
       <c r="IQ3" t="n">
-        <v>263.7994995117188</v>
+        <v>321.6759948730469</v>
       </c>
       <c r="IR3" t="n">
-        <v>262.6242065429688</v>
+        <v>322.5801086425781</v>
       </c>
       <c r="IS3" t="n">
-        <v>262.0686645507812</v>
+        <v>324.3455810546875</v>
       </c>
       <c r="IT3" t="n">
-        <v>261.6380004882812</v>
+        <v>325.0784606933594</v>
       </c>
       <c r="IU3" t="n">
-        <v>261.4704284667969</v>
+        <v>321.368408203125</v>
       </c>
       <c r="IV3" t="n">
-        <v>261.3823852539062</v>
+        <v>314.0154724121094</v>
       </c>
       <c r="IW3" t="n">
-        <v>261.3277587890625</v>
+        <v>305.9178161621094</v>
       </c>
       <c r="IX3" t="n">
-        <v>261.2660217285156</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>261.2554321289062</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>261.2316284179688</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>261.1921081542969</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>261.2415161132812</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>261.6429748535156</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>261.7921752929688</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>262.0585632324219</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>262.2574462890625</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>262.470458984375</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>262.3863220214844</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>262.1728820800781</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>261.50439453125</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>260.4618530273438</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>259.6731872558594</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>259.6034240722656</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>259.5069580078125</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>259.4335327148438</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>259.4452819824219</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>259.4580078125</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>259.4834289550781</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>259.5781860351562</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>259.6531982421875</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>259.6843872070312</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>259.6656494140625</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>259.6360168457031</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>259.6303100585938</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>259.6400451660156</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>259.6473693847656</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>259.6558837890625</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>259.6632080078125</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>259.6502990722656</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>259.4387512207031</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>259.3326416015625</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>259.3721008300781</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>259.4793090820312</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>259.4221496582031</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>259.3350219726562</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>259.2396850585938</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>259.2551574707031</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>259.2693481445312</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>259.2861633300781</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>259.3011169433594</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>259.3363647460938</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>259.3136596679688</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>259.2385864257812</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>259.2195129394531</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>259.2639465332031</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>259.2705688476562</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>259.2840270996094</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>259.2817077636719</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>259.2781372070312</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>259.2723999023438</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>259.2806396484375</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>259.2900390625</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>259.1945495605469</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>259.1765747070312</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>259.2985229492188</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>259.5944519042969</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>259.7581481933594</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>257.5735778808594</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>256.5237121582031</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>255.3962554931641</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>252.2807159423828</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>245.9521331787109</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>238.2723083496094</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>234.8167572021484</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>233.0740051269531</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>226.626708984375</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>223.0302886962891</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>217.8083953857422</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>214.2336273193359</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>211.7464599609375</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>207.3059234619141</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>192.7702026367188</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>180.1001129150391</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>161.7185821533203</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>145.1546020507812</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>139.95556640625</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>135.1662902832031</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>131.1874237060547</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>132.8802947998047</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>139.0806121826172</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>142.9389190673828</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>143.9003143310547</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>138.8848724365234</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>141.309814453125</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>156.6454772949219</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>173.6327972412109</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>193.6111602783203</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>246.2223205566406</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>291.0003356933594</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>307.8792419433594</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>332.3377990722656</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>332.9881896972656</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>330.3135986328125</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>328.2165222167969</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>328.3175354003906</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>332.9757995605469</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>335.8123779296875</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>341.829833984375</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>346.601318359375</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>339.5968933105469</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>327.5712890625</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>319.6585083007812</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>314.9974060058594</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>305.1196594238281</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>296.0990905761719</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>291.1806030273438</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>287.0536804199219</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>285.7010498046875</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>288.8520202636719</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>295.9786682128906</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>303.5080261230469</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>305.9370422363281</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>308.6145935058594</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>310.829345703125</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>311.2767944335938</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>311.3027038574219</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>311.8904418945312</v>
+        <v>299.2838439941406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1030.704467773438</v>
+        <v>986.184814453125</v>
       </c>
       <c r="B4" t="n">
-        <v>1036.445190429688</v>
+        <v>999.1907348632812</v>
       </c>
       <c r="C4" t="n">
-        <v>1039.801391601562</v>
+        <v>1010.79052734375</v>
       </c>
       <c r="D4" t="n">
-        <v>1044.00439453125</v>
+        <v>1021.600708007812</v>
       </c>
       <c r="E4" t="n">
-        <v>1049.600341796875</v>
+        <v>1038.078979492188</v>
       </c>
       <c r="F4" t="n">
-        <v>1058.14208984375</v>
+        <v>1060.132446289062</v>
       </c>
       <c r="G4" t="n">
-        <v>1068.966674804688</v>
+        <v>1084.919677734375</v>
       </c>
       <c r="H4" t="n">
-        <v>1079.744873046875</v>
+        <v>1110.766967773438</v>
       </c>
       <c r="I4" t="n">
-        <v>1089.661376953125</v>
+        <v>1131.896850585938</v>
       </c>
       <c r="J4" t="n">
-        <v>1099.3740234375</v>
+        <v>1156.310180664062</v>
       </c>
       <c r="K4" t="n">
-        <v>1110.482666015625</v>
+        <v>1183.940185546875</v>
       </c>
       <c r="L4" t="n">
-        <v>1121.220458984375</v>
+        <v>1213.369140625</v>
       </c>
       <c r="M4" t="n">
-        <v>1178.934692382812</v>
+        <v>1244.287109375</v>
       </c>
       <c r="N4" t="n">
-        <v>1191.15478515625</v>
+        <v>1276.571411132812</v>
       </c>
       <c r="O4" t="n">
-        <v>1224.174194335938</v>
+        <v>1532.588989257812</v>
       </c>
       <c r="P4" t="n">
-        <v>1236.025268554688</v>
+        <v>1555.218627929688</v>
       </c>
       <c r="Q4" t="n">
-        <v>1244.60791015625</v>
+        <v>1575.024047851562</v>
       </c>
       <c r="R4" t="n">
-        <v>1252.744018554688</v>
+        <v>1592.755981445312</v>
       </c>
       <c r="S4" t="n">
-        <v>1260.96923828125</v>
+        <v>1611.720336914062</v>
       </c>
       <c r="T4" t="n">
-        <v>1278.371826171875</v>
+        <v>1634.569702148438</v>
       </c>
       <c r="U4" t="n">
-        <v>1295.223266601562</v>
+        <v>1661.09423828125</v>
       </c>
       <c r="V4" t="n">
-        <v>1314.107421875</v>
+        <v>1683.692626953125</v>
       </c>
       <c r="W4" t="n">
-        <v>1333.518432617188</v>
+        <v>1702.396728515625</v>
       </c>
       <c r="X4" t="n">
-        <v>1349.95361328125</v>
+        <v>1720.001220703125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1360.506225585938</v>
+        <v>1742.693237304688</v>
       </c>
       <c r="Z4" t="n">
-        <v>1368.959228515625</v>
+        <v>1768.422241210938</v>
       </c>
       <c r="AA4" t="n">
-        <v>1381.249389648438</v>
+        <v>1791.387573242188</v>
       </c>
       <c r="AB4" t="n">
-        <v>1393.623413085938</v>
+        <v>1813.63037109375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1405.94921875</v>
+        <v>1833.107421875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1417.838012695312</v>
+        <v>1851.769165039062</v>
       </c>
       <c r="AE4" t="n">
-        <v>1429.787109375</v>
+        <v>1869.074829101562</v>
       </c>
       <c r="AF4" t="n">
-        <v>1439.646850585938</v>
+        <v>1891.175170898438</v>
       </c>
       <c r="AG4" t="n">
-        <v>1446.600952148438</v>
+        <v>1911.06640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1453.956176757812</v>
+        <v>1935.532958984375</v>
       </c>
       <c r="AI4" t="n">
-        <v>1459.930297851562</v>
+        <v>1954.326782226562</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1465.458862304688</v>
+        <v>1967.982543945312</v>
       </c>
       <c r="AK4" t="n">
-        <v>1468.589599609375</v>
+        <v>1977.286743164062</v>
       </c>
       <c r="AL4" t="n">
-        <v>1469.505126953125</v>
+        <v>1985.03369140625</v>
       </c>
       <c r="AM4" t="n">
-        <v>1469.158203125</v>
+        <v>1992.039794921875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1468.487548828125</v>
+        <v>1999.748291015625</v>
       </c>
       <c r="AO4" t="n">
-        <v>1467.401489257812</v>
+        <v>2007.423583984375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1465.820068359375</v>
+        <v>2015.063720703125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1464.1640625</v>
+        <v>2023.568359375</v>
       </c>
       <c r="AR4" t="n">
-        <v>1462.940307617188</v>
+        <v>2031.949340820312</v>
       </c>
       <c r="AS4" t="n">
-        <v>1460.526123046875</v>
+        <v>2038.220825195312</v>
       </c>
       <c r="AT4" t="n">
-        <v>1455.607055664062</v>
+        <v>2043.770263671875</v>
       </c>
       <c r="AU4" t="n">
-        <v>1448.252563476562</v>
+        <v>2048.95068359375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1440.01416015625</v>
+        <v>2052.997802734375</v>
       </c>
       <c r="AW4" t="n">
-        <v>1431.749755859375</v>
+        <v>2057.477783203125</v>
       </c>
       <c r="AX4" t="n">
-        <v>1423.873779296875</v>
+        <v>2061.791259765625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1415.45751953125</v>
+        <v>2064.7216796875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1405.855346679688</v>
+        <v>2067.48486328125</v>
       </c>
       <c r="BA4" t="n">
-        <v>1394.882934570312</v>
+        <v>2070.609375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1385.404296875</v>
+        <v>2073.70068359375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1376.350830078125</v>
+        <v>2076.769287109375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1369.549560546875</v>
+        <v>2081.37744140625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1363.352416992188</v>
+        <v>2085.2861328125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1357.093139648438</v>
+        <v>2090.035888671875</v>
       </c>
       <c r="BG4" t="n">
-        <v>1349.893676757812</v>
+        <v>2094.2373046875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1343.326049804688</v>
+        <v>2096.71923828125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1337.673583984375</v>
+        <v>2099.23095703125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1331.470703125</v>
+        <v>2102.825927734375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1324.356323242188</v>
+        <v>2106.43505859375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1316.892944335938</v>
+        <v>2107.394775390625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1309.686645507812</v>
+        <v>2108.35400390625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1302.253784179688</v>
+        <v>2108.68603515625</v>
       </c>
       <c r="BO4" t="n">
-        <v>1291.811401367188</v>
+        <v>2108.836181640625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1288.455200195312</v>
+        <v>2108.853515625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1284.910278320312</v>
+        <v>2108.86376953125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1281.264404296875</v>
+        <v>2108.8798828125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1278.162963867188</v>
+        <v>2108.893798828125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1274.786499023438</v>
+        <v>2108.89111328125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1271.36669921875</v>
+        <v>2108.869873046875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1268.039916992188</v>
+        <v>2108.77685546875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1264.650512695312</v>
+        <v>2108.51953125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1261.041015625</v>
+        <v>2107.8056640625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1254.708251953125</v>
+        <v>2107.134521484375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1250.049682617188</v>
+        <v>2106.46142578125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1245.148559570312</v>
+        <v>2105.925048828125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1240.582275390625</v>
+        <v>2104.512939453125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1236.64111328125</v>
+        <v>2102.993896484375</v>
       </c>
       <c r="CD4" t="n">
-        <v>1232.38720703125</v>
+        <v>2101.146484375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1226.858642578125</v>
+        <v>2099.652099609375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1224.721801757812</v>
+        <v>2098.96630859375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1221.821044921875</v>
+        <v>2098.31884765625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1218.33056640625</v>
+        <v>2097.951904296875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1215.670532226562</v>
+        <v>2097.416259765625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1212.99560546875</v>
+        <v>2097.13427734375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1211.210327148438</v>
+        <v>2096.541259765625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1209.931030273438</v>
+        <v>2095.86865234375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1208.540893554688</v>
+        <v>2095.297607421875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1206.928955078125</v>
+        <v>2094.842529296875</v>
       </c>
       <c r="CO4" t="n">
-        <v>1206.36572265625</v>
+        <v>2094.34423828125</v>
       </c>
       <c r="CP4" t="n">
-        <v>1205.95166015625</v>
+        <v>2093.910400390625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1205.541015625</v>
+        <v>2093.57763671875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1205.407470703125</v>
+        <v>2093.279296875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1205.228759765625</v>
+        <v>2092.775390625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1205.05615234375</v>
+        <v>2092.265869140625</v>
       </c>
       <c r="CU4" t="n">
-        <v>1204.973510742188</v>
+        <v>2091.7431640625</v>
       </c>
       <c r="CV4" t="n">
-        <v>1204.885009765625</v>
+        <v>2091.26611328125</v>
       </c>
       <c r="CW4" t="n">
-        <v>1205.488403320312</v>
+        <v>2090.76220703125</v>
       </c>
       <c r="CX4" t="n">
-        <v>1207.511108398438</v>
+        <v>2090.546142578125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1209.0771484375</v>
+        <v>2090.12744140625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1213.453491210938</v>
+        <v>2089.909912109375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1215.049682617188</v>
+        <v>2089.705810546875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1216.41064453125</v>
+        <v>2089.44384765625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1217.746948242188</v>
+        <v>2089.189697265625</v>
       </c>
       <c r="DD4" t="n">
-        <v>1219.249145507812</v>
+        <v>2088.930419921875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1222.2587890625</v>
+        <v>2087.731689453125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1224.766479492188</v>
+        <v>2085.995849609375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1226.412841796875</v>
+        <v>2083.175537109375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1229.607177734375</v>
+        <v>2080.8349609375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1231.354370117188</v>
+        <v>2078.798095703125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1236.217041015625</v>
+        <v>2077.353759765625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1240.6796875</v>
+        <v>2075.408447265625</v>
       </c>
       <c r="DL4" t="n">
-        <v>1242.55712890625</v>
+        <v>2075.108642578125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1244.24365234375</v>
+        <v>2074.96533203125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1245.625732421875</v>
+        <v>2074.94873046875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1246.920166015625</v>
+        <v>2075.481689453125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1248.300659179688</v>
+        <v>2076.1806640625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1251.538818359375</v>
+        <v>2077.3095703125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1253.05078125</v>
+        <v>2077.54345703125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1254.370239257812</v>
+        <v>2077.668212890625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1257.791748046875</v>
+        <v>2077.2509765625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1265.4150390625</v>
+        <v>2077.67529296875</v>
       </c>
       <c r="DV4" t="n">
-        <v>1269.194091796875</v>
+        <v>2081.714111328125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1276.725708007812</v>
+        <v>2083.969970703125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1282.19775390625</v>
+        <v>2086.298828125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1287.703491210938</v>
+        <v>2088.954345703125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1302.606079101562</v>
+        <v>2089.70361328125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1310.457763671875</v>
+        <v>2089.80322265625</v>
       </c>
       <c r="EB4" t="n">
-        <v>1325.103149414062</v>
+        <v>2089.70458984375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1332.693237304688</v>
+        <v>2089.636962890625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1340.2216796875</v>
+        <v>2089.46728515625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1355.687255859375</v>
+        <v>2089.364990234375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1375.0908203125</v>
+        <v>2088.939697265625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1399.036987304688</v>
+        <v>2088.27978515625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1410.934448242188</v>
+        <v>2086.962890625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1429.842529296875</v>
+        <v>2086.419677734375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1443.375854492188</v>
+        <v>2085.832275390625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1468.400512695312</v>
+        <v>2076.969482421875</v>
       </c>
       <c r="EL4" t="n">
-        <v>1478.770874023438</v>
+        <v>2067.930419921875</v>
       </c>
       <c r="EM4" t="n">
-        <v>1496.354125976562</v>
+        <v>2065.040283203125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1506.559204101562</v>
+        <v>2063.93505859375</v>
       </c>
       <c r="EO4" t="n">
-        <v>1524.177490234375</v>
+        <v>2063.405029296875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1535.869873046875</v>
+        <v>2063.396240234375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1572.903076171875</v>
+        <v>2063.302734375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1585.079467773438</v>
+        <v>2060.948974609375</v>
       </c>
       <c r="ES4" t="n">
-        <v>1613.21728515625</v>
+        <v>2057.65283203125</v>
       </c>
       <c r="ET4" t="n">
-        <v>1645.336181640625</v>
+        <v>2053.39404296875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1665.009521484375</v>
+        <v>2043.060180664062</v>
       </c>
       <c r="EV4" t="n">
-        <v>1684.709716796875</v>
+        <v>2027.090087890625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1730.8779296875</v>
+        <v>2020.885620117188</v>
       </c>
       <c r="EX4" t="n">
-        <v>1775.161865234375</v>
+        <v>2008.144165039062</v>
       </c>
       <c r="EY4" t="n">
-        <v>1795.461669921875</v>
+        <v>2001.314575195312</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1819.15771484375</v>
+        <v>1981.988403320312</v>
       </c>
       <c r="FA4" t="n">
-        <v>1855.456420898438</v>
+        <v>1969.506591796875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1868.174560546875</v>
+        <v>1957.158813476562</v>
       </c>
       <c r="FC4" t="n">
-        <v>1906.531005859375</v>
+        <v>1920.6005859375</v>
       </c>
       <c r="FD4" t="n">
-        <v>1966.044799804688</v>
+        <v>1886.298583984375</v>
       </c>
       <c r="FE4" t="n">
-        <v>1987.048828125</v>
+        <v>1868.849609375</v>
       </c>
       <c r="FF4" t="n">
-        <v>2001.982666015625</v>
+        <v>1836.56103515625</v>
       </c>
       <c r="FG4" t="n">
-        <v>2032.60107421875</v>
+        <v>1825.016723632812</v>
       </c>
       <c r="FH4" t="n">
-        <v>2054.476318359375</v>
+        <v>1798.072509765625</v>
       </c>
       <c r="FI4" t="n">
-        <v>2099.114013671875</v>
+        <v>1782.121215820312</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2122.646728515625</v>
+        <v>1747.978881835938</v>
       </c>
       <c r="FK4" t="n">
-        <v>2172.010498046875</v>
+        <v>1724.075317382812</v>
       </c>
       <c r="FL4" t="n">
-        <v>2192.24755859375</v>
+        <v>1709.028442382812</v>
       </c>
       <c r="FM4" t="n">
-        <v>2222.6044921875</v>
+        <v>1686.012817382812</v>
       </c>
       <c r="FN4" t="n">
-        <v>2234.7587890625</v>
+        <v>1676.500366210938</v>
       </c>
       <c r="FO4" t="n">
-        <v>2245.6591796875</v>
+        <v>1650.895263671875</v>
       </c>
       <c r="FP4" t="n">
-        <v>2267.37939453125</v>
+        <v>1619.44580078125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2287.634033203125</v>
+        <v>1607.5908203125</v>
       </c>
       <c r="FR4" t="n">
-        <v>2308.70849609375</v>
+        <v>1588.393188476562</v>
       </c>
       <c r="FS4" t="n">
-        <v>2334.152099609375</v>
+        <v>1577.500732421875</v>
       </c>
       <c r="FT4" t="n">
-        <v>2358.134765625</v>
+        <v>1539.725219726562</v>
       </c>
       <c r="FU4" t="n">
-        <v>2366.316650390625</v>
+        <v>1498.217407226562</v>
       </c>
       <c r="FV4" t="n">
-        <v>2378.89697265625</v>
+        <v>1468.551635742188</v>
       </c>
       <c r="FW4" t="n">
-        <v>2380.229248046875</v>
+        <v>1416.193725585938</v>
       </c>
       <c r="FX4" t="n">
-        <v>2379.271240234375</v>
+        <v>1399.294799804688</v>
       </c>
       <c r="FY4" t="n">
-        <v>2378.18896484375</v>
+        <v>1370.718383789062</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2380.703125</v>
+        <v>1354.72412109375</v>
       </c>
       <c r="GA4" t="n">
-        <v>2383.1767578125</v>
+        <v>1321.078491210938</v>
       </c>
       <c r="GB4" t="n">
-        <v>2388.696044921875</v>
+        <v>1305.805297851562</v>
       </c>
       <c r="GC4" t="n">
-        <v>2392.12451171875</v>
+        <v>1281.247924804688</v>
       </c>
       <c r="GD4" t="n">
-        <v>2400.80126953125</v>
+        <v>1270.538452148438</v>
       </c>
       <c r="GE4" t="n">
-        <v>2403.334716796875</v>
+        <v>1249.785888671875</v>
       </c>
       <c r="GF4" t="n">
-        <v>2408.065185546875</v>
+        <v>1226.360717773438</v>
       </c>
       <c r="GG4" t="n">
-        <v>2407.578125</v>
+        <v>1215.279541015625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2404.080078125</v>
+        <v>1189.3486328125</v>
       </c>
       <c r="GI4" t="n">
-        <v>2398.270751953125</v>
+        <v>1163.086303710938</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2393.14404296875</v>
+        <v>1149.754150390625</v>
       </c>
       <c r="GK4" t="n">
-        <v>2390.434814453125</v>
+        <v>1121.265014648438</v>
       </c>
       <c r="GL4" t="n">
-        <v>2391.9638671875</v>
+        <v>1090.1025390625</v>
       </c>
       <c r="GM4" t="n">
-        <v>2392.056884765625</v>
+        <v>1057.068969726562</v>
       </c>
       <c r="GN4" t="n">
-        <v>2392.058837890625</v>
+        <v>1037.024536132812</v>
       </c>
       <c r="GO4" t="n">
-        <v>2389.6064453125</v>
+        <v>999.5294189453125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2385.679931640625</v>
+        <v>966.1768188476562</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2379.615478515625</v>
+        <v>949.4012451171875</v>
       </c>
       <c r="GR4" t="n">
-        <v>2372.583740234375</v>
+        <v>919.9788818359375</v>
       </c>
       <c r="GS4" t="n">
-        <v>2369.159912109375</v>
+        <v>907.0682373046875</v>
       </c>
       <c r="GT4" t="n">
-        <v>2367.438232421875</v>
+        <v>894.82080078125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2363.14404296875</v>
+        <v>873.5068969726562</v>
       </c>
       <c r="GV4" t="n">
-        <v>2357.822265625</v>
+        <v>854.218994140625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2354.509765625</v>
+        <v>833.9993896484375</v>
       </c>
       <c r="GX4" t="n">
-        <v>2348.893310546875</v>
+        <v>814.2258911132812</v>
       </c>
       <c r="GY4" t="n">
-        <v>2345.306640625</v>
+        <v>793.0737915039062</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2344.841552734375</v>
+        <v>771.3124389648438</v>
       </c>
       <c r="HA4" t="n">
-        <v>2344.790771484375</v>
+        <v>733.33447265625</v>
       </c>
       <c r="HB4" t="n">
-        <v>2343.685791015625</v>
+        <v>709.1239624023438</v>
       </c>
       <c r="HC4" t="n">
-        <v>2341.850341796875</v>
+        <v>696.2116088867188</v>
       </c>
       <c r="HD4" t="n">
-        <v>2340.65673828125</v>
+        <v>692.1419677734375</v>
       </c>
       <c r="HE4" t="n">
-        <v>2339.5576171875</v>
+        <v>690.040283203125</v>
       </c>
       <c r="HF4" t="n">
-        <v>2337.212158203125</v>
+        <v>689.2652587890625</v>
       </c>
       <c r="HG4" t="n">
-        <v>2331.769287109375</v>
+        <v>687.7161865234375</v>
       </c>
       <c r="HH4" t="n">
-        <v>2331.309326171875</v>
+        <v>689.0590209960938</v>
       </c>
       <c r="HI4" t="n">
-        <v>2331.64208984375</v>
+        <v>691.6942138671875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2332.420654296875</v>
+        <v>690.6357421875</v>
       </c>
       <c r="HK4" t="n">
-        <v>2331.273193359375</v>
+        <v>687.6460571289062</v>
       </c>
       <c r="HL4" t="n">
-        <v>2311.12109375</v>
+        <v>683.679443359375</v>
       </c>
       <c r="HM4" t="n">
-        <v>2291.494140625</v>
+        <v>681.3995361328125</v>
       </c>
       <c r="HN4" t="n">
-        <v>2282.116943359375</v>
+        <v>655.9129028320312</v>
       </c>
       <c r="HO4" t="n">
-        <v>2272.216552734375</v>
+        <v>620.0540161132812</v>
       </c>
       <c r="HP4" t="n">
-        <v>2263.253662109375</v>
+        <v>593.1439819335938</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2257.3466796875</v>
+        <v>579.603759765625</v>
       </c>
       <c r="HR4" t="n">
-        <v>2245.59228515625</v>
+        <v>575.0130004882812</v>
       </c>
       <c r="HS4" t="n">
-        <v>2238.742919921875</v>
+        <v>573.853515625</v>
       </c>
       <c r="HT4" t="n">
-        <v>2230.0263671875</v>
+        <v>572.925048828125</v>
       </c>
       <c r="HU4" t="n">
-        <v>2224.56640625</v>
+        <v>577.9548950195312</v>
       </c>
       <c r="HV4" t="n">
-        <v>2221.384521484375</v>
+        <v>596.3201293945312</v>
       </c>
       <c r="HW4" t="n">
-        <v>2218.29638671875</v>
+        <v>629.0932006835938</v>
       </c>
       <c r="HX4" t="n">
-        <v>2217.1826171875</v>
+        <v>680.2466430664062</v>
       </c>
       <c r="HY4" t="n">
-        <v>2216.948486328125</v>
+        <v>723.677001953125</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2216.85205078125</v>
+        <v>766.5743408203125</v>
       </c>
       <c r="IA4" t="n">
-        <v>2216.810546875</v>
+        <v>807.3797607421875</v>
       </c>
       <c r="IB4" t="n">
-        <v>2216.800048828125</v>
+        <v>845.752197265625</v>
       </c>
       <c r="IC4" t="n">
-        <v>2216.78125</v>
+        <v>878.6868286132812</v>
       </c>
       <c r="ID4" t="n">
-        <v>2216.7470703125</v>
+        <v>904.8966064453125</v>
       </c>
       <c r="IE4" t="n">
-        <v>2218.6943359375</v>
+        <v>925.2828979492188</v>
       </c>
       <c r="IF4" t="n">
-        <v>2221.830078125</v>
+        <v>950.3541870117188</v>
       </c>
       <c r="IG4" t="n">
-        <v>2223.705078125</v>
+        <v>958.3809204101562</v>
       </c>
       <c r="IH4" t="n">
-        <v>2225.908203125</v>
+        <v>959.586669921875</v>
       </c>
       <c r="II4" t="n">
-        <v>2230.752197265625</v>
+        <v>946.4675903320312</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2236.561279296875</v>
+        <v>914.6395874023438</v>
       </c>
       <c r="IK4" t="n">
-        <v>2252.656982421875</v>
+        <v>884.9063110351562</v>
       </c>
       <c r="IL4" t="n">
-        <v>2254.052001953125</v>
+        <v>853.1218872070312</v>
       </c>
       <c r="IM4" t="n">
-        <v>2259.78466796875</v>
+        <v>819.204345703125</v>
       </c>
       <c r="IN4" t="n">
-        <v>2272.384521484375</v>
+        <v>755.6510009765625</v>
       </c>
       <c r="IO4" t="n">
-        <v>2275.831787109375</v>
+        <v>728.8856201171875</v>
       </c>
       <c r="IP4" t="n">
-        <v>2276.766845703125</v>
+        <v>704.7921752929688</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2288.77587890625</v>
+        <v>672.8749389648438</v>
       </c>
       <c r="IR4" t="n">
-        <v>2302.582275390625</v>
+        <v>664.5772705078125</v>
       </c>
       <c r="IS4" t="n">
-        <v>2307.41650390625</v>
+        <v>650.3453369140625</v>
       </c>
       <c r="IT4" t="n">
-        <v>2311.902587890625</v>
+        <v>641.1864013671875</v>
       </c>
       <c r="IU4" t="n">
-        <v>2314.152099609375</v>
+        <v>635.2013549804688</v>
       </c>
       <c r="IV4" t="n">
-        <v>2314.8671875</v>
+        <v>632.3623046875</v>
       </c>
       <c r="IW4" t="n">
-        <v>2315.24462890625</v>
+        <v>629.1947021484375</v>
       </c>
       <c r="IX4" t="n">
-        <v>2316.244384765625</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2316.1630859375</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2315.9404296875</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2315.76171875</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2313.146484375</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2301.355224609375</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2295.21923828125</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2283.392822265625</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2273.641845703125</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2264.618896484375</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2259.6845703125</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2256.696044921875</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2252.031005859375</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2249.085205078125</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2240.041259765625</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2236.378662109375</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2235.201171875</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2232.900634765625</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2229.513671875</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2226.33056640625</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2223.39892578125</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2216.5322265625</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2211.161865234375</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2207.016845703125</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2205.070068359375</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2202.63671875</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2201.765869140625</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2200.889404296875</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2200.346435546875</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2199.75390625</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2199.100341796875</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2197.223388671875</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2192.30029296875</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2191.0859375</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2192.441162109375</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2196.33349609375</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2200.886474609375</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2206.183349609375</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2211.824951171875</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2211.633544921875</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2211.205078125</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2210.06005859375</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2209.308349609375</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2210.89599609375</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2210.84912109375</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2211.0537109375</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2212.5576171875</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2217.280029296875</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2217.79296875</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2217.612548828125</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2217.78515625</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2217.804443359375</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2217.783203125</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2217.666259765625</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2217.308349609375</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2212.32861328125</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2199.66796875</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2184.4501953125</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2162.328369140625</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2139.6748046875</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2083.75830078125</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>2026.088989257812</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1986.4638671875</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1903.068725585938</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1798.766845703125</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1712.606323242188</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1659.872436523438</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1608.30078125</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1550.895874023438</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1504.833862304688</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1425.455444335938</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1325.849365234375</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1254.973510742188</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1178.1083984375</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>1048.005859375</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>980.385009765625</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>925.05419921875</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>879.5750732421875</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>852.206787109375</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>823.5936889648438</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>796.8429565429688</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>784.5432739257812</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>781.2393798828125</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>780.6338500976562</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>793.3244018554688</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>805.5029296875</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>805.7974853515625</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>794.58154296875</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>784.8626098632812</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>782.2461547851562</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>794.42626953125</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>828.1363525390625</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>847.4808959960938</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>895.622314453125</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>929.5426025390625</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>945.8594970703125</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>960.253662109375</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>959.1920776367188</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>917.05859375</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>891.5740356445312</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>835.974365234375</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>782.6709594726562</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>778.8641967773438</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>780.0308837890625</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>765.3786010742188</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>745.4539184570312</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>723.4160766601562</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>708.7208862304688</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>705.0660400390625</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>706.6206665039062</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>717.8997802734375</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>725.8336181640625</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>732.2694702148438</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>742.0513305664062</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>753.1251831054688</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>762.9426879882812</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>767.9840087890625</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>768.3461303710938</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>767.660888671875</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>756.7281494140625</v>
+        <v>627.0681762695312</v>
       </c>
     </row>
   </sheetData>
